--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>815835.7547566376</v>
+        <v>815024.8928709717</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927630.397763546</v>
+        <v>2927630.397763543</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736558</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>289.5360741206862</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>144.3845534087586</v>
+        <v>280.5173781652139</v>
       </c>
       <c r="E11" t="n">
-        <v>302.2595157351196</v>
+        <v>302.2595157351195</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>313.9310227389996</v>
       </c>
       <c r="G11" t="n">
-        <v>322.8259281844711</v>
+        <v>322.825928184471</v>
       </c>
       <c r="H11" t="n">
-        <v>235.3980448302755</v>
+        <v>235.3980448302753</v>
       </c>
       <c r="I11" t="n">
-        <v>61.7435454499586</v>
+        <v>61.74354544995848</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>84.50336102841619</v>
       </c>
       <c r="T11" t="n">
-        <v>131.1789751974133</v>
+        <v>131.1789751974132</v>
       </c>
       <c r="U11" t="n">
-        <v>163.7150422404275</v>
+        <v>163.7150422404273</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0311344031835</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>270.3312338811404</v>
+        <v>270.3312338811403</v>
       </c>
       <c r="X11" t="n">
-        <v>289.631492113887</v>
+        <v>289.6314921138869</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1530002961277</v>
+        <v>127.1530002961288</v>
       </c>
       <c r="H12" t="n">
         <v>96.15493182979186</v>
       </c>
       <c r="I12" t="n">
-        <v>57.77528156016839</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S12" t="n">
         <v>145.9180308310938</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>93.14146803770132</v>
       </c>
       <c r="C13" t="n">
-        <v>79.34146288310197</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.96282728068036</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.91057713645981</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.37750146464612</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>78.41057467935265</v>
+        <v>78.41057467935249</v>
       </c>
       <c r="H13" t="n">
-        <v>67.05226583145536</v>
+        <v>67.0522658314552</v>
       </c>
       <c r="I13" t="n">
-        <v>46.91620873924627</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.58367534058663</v>
       </c>
       <c r="S13" t="n">
-        <v>118.7833746993205</v>
+        <v>118.7833746993203</v>
       </c>
       <c r="T13" t="n">
-        <v>141.2363997097215</v>
+        <v>141.2363997097213</v>
       </c>
       <c r="U13" t="n">
-        <v>195.7268103646852</v>
+        <v>195.7268103646851</v>
       </c>
       <c r="V13" t="n">
-        <v>169.5496044373271</v>
+        <v>151.1242278884266</v>
       </c>
       <c r="W13" t="n">
-        <v>4.507679833190835</v>
+        <v>194.7164905079402</v>
       </c>
       <c r="X13" t="n">
-        <v>140.3615925037435</v>
+        <v>140.3615925037433</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.2364602598111</v>
+        <v>131.236460259811</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>162.6957921464355</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>287.2625018696226</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>278.2438059141506</v>
       </c>
       <c r="E14" t="n">
         <v>299.9859434840561</v>
@@ -1619,13 +1619,13 @@
         <v>319.1577595720333</v>
       </c>
       <c r="G14" t="n">
-        <v>320.5523559334076</v>
+        <v>20.10198371244012</v>
       </c>
       <c r="H14" t="n">
         <v>233.124472579212</v>
       </c>
       <c r="I14" t="n">
-        <v>59.46997319889506</v>
+        <v>59.46997319889509</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>82.22978877735281</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>128.9054029463498</v>
       </c>
       <c r="U14" t="n">
         <v>161.441469989364</v>
       </c>
       <c r="V14" t="n">
-        <v>242.75756215212</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>287.3579198628235</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>298.7545176590223</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.1530002961277</v>
       </c>
       <c r="H15" t="n">
-        <v>96.15493182979186</v>
+        <v>96.1549318297929</v>
       </c>
       <c r="I15" t="n">
-        <v>57.77528156016839</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.29183401558687</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S15" t="n">
         <v>145.9180308310938</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.86789578663794</v>
+        <v>90.86789578663793</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27.11671493776771</v>
+        <v>60.6892550296168</v>
       </c>
       <c r="E16" t="n">
-        <v>59.63700488539627</v>
+        <v>59.63700488539625</v>
       </c>
       <c r="F16" t="n">
-        <v>60.10392921358257</v>
+        <v>60.10392921358256</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>76.13700242828909</v>
       </c>
       <c r="H16" t="n">
         <v>64.77869358039182</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>44.64263648818273</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.31010308952325</v>
       </c>
       <c r="S16" t="n">
         <v>116.5098024482569</v>
@@ -1822,10 +1822,10 @@
         <v>193.4532381136217</v>
       </c>
       <c r="V16" t="n">
-        <v>167.2760321862635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>192.4429182568768</v>
+        <v>159.0566683452961</v>
       </c>
       <c r="X16" t="n">
         <v>138.0880202526799</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.155016797623482</v>
+        <v>7.155016797623503</v>
       </c>
       <c r="T17" t="n">
-        <v>53.83063096662048</v>
+        <v>53.83063096661957</v>
       </c>
       <c r="U17" t="n">
         <v>86.36669800963463</v>
@@ -1941,7 +1941,7 @@
         <v>96.15493182979186</v>
       </c>
       <c r="I18" t="n">
-        <v>57.77528156016945</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S18" t="n">
         <v>145.9180308310938</v>
       </c>
       <c r="T18" t="n">
-        <v>185.6365453760516</v>
+        <v>185.6365453760525</v>
       </c>
       <c r="U18" t="n">
         <v>216.2908829855137</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.062230448559791</v>
+        <v>1.062230448559792</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43503046852763</v>
+        <v>197.3549076432886</v>
       </c>
       <c r="T19" t="n">
         <v>63.88805547892864</v>
@@ -2059,7 +2059,7 @@
         <v>118.3784661338924</v>
       </c>
       <c r="V19" t="n">
-        <v>248.1211373812954</v>
+        <v>92.20126020653422</v>
       </c>
       <c r="W19" t="n">
         <v>117.3681462771475</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.155016797623482</v>
+        <v>7.155016797623503</v>
       </c>
       <c r="T20" t="n">
         <v>53.83063096662048</v>
@@ -2178,7 +2178,7 @@
         <v>96.15493182979186</v>
       </c>
       <c r="I21" t="n">
-        <v>57.77528156016945</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S21" t="n">
         <v>145.9180308310938</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.062230448559791</v>
+        <v>1.062230448559792</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43503046852763</v>
+        <v>197.3549076432886</v>
       </c>
       <c r="T22" t="n">
         <v>63.88805547892864</v>
@@ -2302,7 +2302,7 @@
         <v>117.3681462771475</v>
       </c>
       <c r="X22" t="n">
-        <v>218.9331254477118</v>
+        <v>63.01324827295059</v>
       </c>
       <c r="Y22" t="n">
         <v>53.88811602901828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.155016797623489</v>
+        <v>7.155016797623517</v>
       </c>
       <c r="T23" t="n">
         <v>53.83063096662048</v>
@@ -2415,7 +2415,7 @@
         <v>96.15493182979186</v>
       </c>
       <c r="I24" t="n">
-        <v>57.77528156016839</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S24" t="n">
         <v>145.9180308310938</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.493183527026599</v>
+        <v>1.062230448559792</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43503046852763</v>
+        <v>41.43503046852764</v>
       </c>
       <c r="T25" t="n">
         <v>63.88805547892864</v>
@@ -2533,7 +2533,7 @@
         <v>118.3784661338924</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20126020653422</v>
+        <v>248.1211373812952</v>
       </c>
       <c r="W25" t="n">
         <v>117.3681462771475</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.6018202626891</v>
+        <v>287.601820262689</v>
       </c>
       <c r="C26" t="n">
         <v>275.6131372203708</v>
@@ -2570,10 +2570,10 @@
         <v>308.9029912841557</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4751079299602</v>
+        <v>221.4751079299601</v>
       </c>
       <c r="I26" t="n">
-        <v>47.82060854964325</v>
+        <v>47.8206085496433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.580424128101</v>
+        <v>70.58042412810101</v>
       </c>
       <c r="T26" t="n">
         <v>117.256038297098</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7921053401122</v>
+        <v>149.7921053401121</v>
       </c>
       <c r="V26" t="n">
         <v>231.1081975028682</v>
@@ -2618,7 +2618,7 @@
         <v>256.4082969808251</v>
       </c>
       <c r="X26" t="n">
-        <v>275.7085552135717</v>
+        <v>275.7085552135715</v>
       </c>
       <c r="Y26" t="n">
         <v>287.1051530097704</v>
@@ -2652,7 +2652,7 @@
         <v>96.15493182979186</v>
       </c>
       <c r="I27" t="n">
-        <v>57.77528156016839</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S27" t="n">
         <v>145.9180308310938</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.21853113738615</v>
+        <v>79.21853113738614</v>
       </c>
       <c r="C28" t="n">
-        <v>65.41852598278663</v>
+        <v>65.41852598278662</v>
       </c>
       <c r="D28" t="n">
-        <v>49.03989038036502</v>
+        <v>49.03989038036501</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98764023614447</v>
+        <v>47.98764023614446</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45456456433078</v>
+        <v>48.45456456433077</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48763777903733</v>
+        <v>64.48763777903731</v>
       </c>
       <c r="H28" t="n">
         <v>53.12932893114002</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99327183893094</v>
+        <v>32.99327183893093</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>104.8604377990052</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3134628094062</v>
+        <v>127.3134628094061</v>
       </c>
       <c r="U28" t="n">
         <v>181.8038734643699</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.6018202626891</v>
+        <v>287.601820262689</v>
       </c>
       <c r="C29" t="n">
         <v>275.6131372203708</v>
@@ -2798,16 +2798,16 @@
         <v>266.5944412648988</v>
       </c>
       <c r="E29" t="n">
-        <v>288.3365788348044</v>
+        <v>288.3365788348043</v>
       </c>
       <c r="F29" t="n">
         <v>307.5083949227815</v>
       </c>
       <c r="G29" t="n">
-        <v>308.9029912841558</v>
+        <v>308.9029912841557</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4751079299602</v>
+        <v>221.4751079299601</v>
       </c>
       <c r="I29" t="n">
         <v>47.8206085496433</v>
@@ -2846,7 +2846,7 @@
         <v>117.256038297098</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7921053401112</v>
+        <v>149.7921053401121</v>
       </c>
       <c r="V29" t="n">
         <v>231.1081975028682</v>
@@ -2858,7 +2858,7 @@
         <v>275.7085552135717</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.1051530097705</v>
+        <v>287.1051530097704</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>96.15493182979186</v>
       </c>
       <c r="I30" t="n">
-        <v>57.77528156016839</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S30" t="n">
         <v>145.9180308310938</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.21853113738617</v>
+        <v>79.21853113738614</v>
       </c>
       <c r="C31" t="n">
-        <v>65.41852598278665</v>
+        <v>65.41852598278662</v>
       </c>
       <c r="D31" t="n">
-        <v>49.03989038036504</v>
+        <v>49.03989038036501</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98764023614449</v>
+        <v>47.98764023614446</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45456456433079</v>
+        <v>48.45456456433077</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48763777903734</v>
+        <v>64.48763777903731</v>
       </c>
       <c r="H31" t="n">
-        <v>53.12932893114004</v>
+        <v>53.12932893114002</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99327183893095</v>
+        <v>32.99327183893094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66073844027146</v>
+        <v>34.66073844027144</v>
       </c>
       <c r="S31" t="n">
         <v>104.8604377990052</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3134628094062</v>
+        <v>127.3134628094061</v>
       </c>
       <c r="U31" t="n">
         <v>181.8038734643699</v>
       </c>
       <c r="V31" t="n">
-        <v>155.6266675370118</v>
+        <v>155.6266675370117</v>
       </c>
       <c r="W31" t="n">
         <v>180.793553607625</v>
@@ -3047,7 +3047,7 @@
         <v>221.4751079299601</v>
       </c>
       <c r="I32" t="n">
-        <v>47.82060854964323</v>
+        <v>47.82060854964325</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>96.15493182979186</v>
       </c>
       <c r="I33" t="n">
-        <v>57.77528156016839</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S33" t="n">
         <v>145.9180308310938</v>
@@ -3205,7 +3205,7 @@
         <v>53.12932893113997</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99327183893088</v>
+        <v>32.99327183893089</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66073844027139</v>
+        <v>34.6607384402714</v>
       </c>
       <c r="S34" t="n">
         <v>104.8604377990051</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.5076394619824</v>
+        <v>237.5076394619823</v>
       </c>
       <c r="C35" t="n">
-        <v>225.5189564196641</v>
+        <v>225.518956419664</v>
       </c>
       <c r="D35" t="n">
-        <v>216.5002604641921</v>
+        <v>216.500260464192</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2423980340976</v>
+        <v>238.2423980340975</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4142141220748</v>
+        <v>257.4142141220747</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8088104834491</v>
+        <v>258.808810483449</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3809271292535</v>
+        <v>171.3809271292534</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.48624332739431</v>
+        <v>20.48624332739422</v>
       </c>
       <c r="T35" t="n">
-        <v>67.16185749639129</v>
+        <v>67.16185749639121</v>
       </c>
       <c r="U35" t="n">
-        <v>99.69792453940545</v>
+        <v>99.69792453940536</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0140167021615</v>
+        <v>181.0140167021614</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3141161801184</v>
+        <v>206.3141161801183</v>
       </c>
       <c r="X35" t="n">
-        <v>225.614374412865</v>
+        <v>225.6143744128649</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.0109722090638</v>
+        <v>237.0109722090637</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>96.15493182979186</v>
       </c>
       <c r="I36" t="n">
-        <v>57.77528156016839</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S36" t="n">
         <v>145.9180308310938</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.12435033667944</v>
+        <v>29.12435033667936</v>
       </c>
       <c r="C37" t="n">
-        <v>15.32434518207992</v>
+        <v>15.32434518207984</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>19.57246374662052</v>
       </c>
       <c r="G37" t="n">
-        <v>14.39345697833061</v>
+        <v>14.39345697833052</v>
       </c>
       <c r="H37" t="n">
-        <v>3.035148130433317</v>
+        <v>3.035148130433236</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>74.33872074491816</v>
+        <v>54.76625699829837</v>
       </c>
       <c r="T37" t="n">
-        <v>77.21928200869945</v>
+        <v>77.21928200869937</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7096926636632</v>
+        <v>131.7096926636631</v>
       </c>
       <c r="V37" t="n">
-        <v>105.532486736305</v>
+        <v>105.5324867363049</v>
       </c>
       <c r="W37" t="n">
-        <v>130.6993728069183</v>
+        <v>130.6993728069182</v>
       </c>
       <c r="X37" t="n">
-        <v>76.34447480272141</v>
+        <v>76.34447480272132</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.21934255878909</v>
+        <v>67.21934255878901</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>96.15493182979186</v>
       </c>
       <c r="I39" t="n">
-        <v>57.77528156016839</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S39" t="n">
         <v>145.9180308310938</v>
@@ -3676,7 +3676,7 @@
         <v>14.39345697833052</v>
       </c>
       <c r="H40" t="n">
-        <v>3.035148130433232</v>
+        <v>3.035148130433236</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3743,16 +3743,16 @@
         <v>225.5189564196641</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5002604641921</v>
+        <v>216.500260464192</v>
       </c>
       <c r="E41" t="n">
         <v>238.2423980340976</v>
       </c>
       <c r="F41" t="n">
-        <v>257.4142141220748</v>
+        <v>257.4142141220747</v>
       </c>
       <c r="G41" t="n">
-        <v>258.8088104834491</v>
+        <v>258.808810483449</v>
       </c>
       <c r="H41" t="n">
         <v>171.3809271292534</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.48624332739428</v>
+        <v>20.48624332739426</v>
       </c>
       <c r="T41" t="n">
-        <v>67.16185749639126</v>
+        <v>67.16185749639125</v>
       </c>
       <c r="U41" t="n">
-        <v>99.69792453940542</v>
+        <v>99.69792453940539</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0140167021615</v>
+        <v>181.0140167021614</v>
       </c>
       <c r="W41" t="n">
-        <v>206.3141161801184</v>
+        <v>206.3141161801183</v>
       </c>
       <c r="X41" t="n">
-        <v>225.614374412865</v>
+        <v>225.6143744128649</v>
       </c>
       <c r="Y41" t="n">
         <v>237.0109722090637</v>
@@ -3837,7 +3837,7 @@
         <v>96.15493182979186</v>
       </c>
       <c r="I42" t="n">
-        <v>57.77528156016839</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S42" t="n">
         <v>145.9180308310938</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.12435033667941</v>
+        <v>29.12435033667938</v>
       </c>
       <c r="C43" t="n">
-        <v>15.3243451820799</v>
+        <v>15.32434518207987</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.39345697833058</v>
+        <v>14.39345697833055</v>
       </c>
       <c r="H43" t="n">
-        <v>3.035148130433289</v>
+        <v>3.035148130433264</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.76625699829842</v>
+        <v>74.3387207449186</v>
       </c>
       <c r="T43" t="n">
-        <v>77.21928200869942</v>
+        <v>77.21928200869939</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7096926636632</v>
+        <v>131.7096926636631</v>
       </c>
       <c r="V43" t="n">
         <v>105.532486736305</v>
       </c>
       <c r="W43" t="n">
-        <v>130.6993728069183</v>
+        <v>130.6993728069182</v>
       </c>
       <c r="X43" t="n">
-        <v>76.34447480272138</v>
+        <v>76.34447480272135</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.79180630540907</v>
+        <v>67.21934255878904</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>239.7812117130458</v>
+        <v>207.9512001981572</v>
       </c>
       <c r="C44" t="n">
-        <v>227.7925286707276</v>
+        <v>227.7925286707275</v>
       </c>
       <c r="D44" t="n">
         <v>218.7738327152555</v>
       </c>
       <c r="E44" t="n">
-        <v>240.5159702851611</v>
+        <v>240.515970285161</v>
       </c>
       <c r="F44" t="n">
         <v>259.6877863731382</v>
@@ -3992,7 +3992,7 @@
         <v>261.0823827345125</v>
       </c>
       <c r="H44" t="n">
-        <v>173.6544993803169</v>
+        <v>173.6544993803168</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>22.75981557845775</v>
+        <v>22.7598155784577</v>
       </c>
       <c r="T44" t="n">
-        <v>69.43542974745475</v>
+        <v>69.43542974745469</v>
       </c>
       <c r="U44" t="n">
-        <v>101.9714967904689</v>
+        <v>101.9714967904688</v>
       </c>
       <c r="V44" t="n">
         <v>183.2875889532249</v>
       </c>
       <c r="W44" t="n">
-        <v>176.7576769162945</v>
+        <v>208.5876884311818</v>
       </c>
       <c r="X44" t="n">
-        <v>227.8879466639285</v>
+        <v>227.8879466639284</v>
       </c>
       <c r="Y44" t="n">
         <v>239.2845444601272</v>
@@ -4074,7 +4074,7 @@
         <v>96.15493182979186</v>
       </c>
       <c r="I45" t="n">
-        <v>57.77528156016839</v>
+        <v>57.77528156016841</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.29183401558612</v>
+        <v>41.29183401558615</v>
       </c>
       <c r="S45" t="n">
         <v>145.9180308310938</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.3979225877429</v>
+        <v>31.39792258774284</v>
       </c>
       <c r="C46" t="n">
-        <v>17.59791743314338</v>
+        <v>17.59791743314332</v>
       </c>
       <c r="D46" t="n">
-        <v>1.219281830721769</v>
+        <v>1.219281830721712</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1670316865012182</v>
+        <v>0.1670316865011614</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6339560146875272</v>
+        <v>0.6339560146874703</v>
       </c>
       <c r="G46" t="n">
-        <v>16.66702922939406</v>
+        <v>16.66702922939401</v>
       </c>
       <c r="H46" t="n">
-        <v>5.308720381496773</v>
+        <v>5.30872038149672</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.0398292493619</v>
+        <v>57.03982924936185</v>
       </c>
       <c r="T46" t="n">
-        <v>79.49285425976291</v>
+        <v>79.49285425976285</v>
       </c>
       <c r="U46" t="n">
         <v>133.9832649147266</v>
       </c>
       <c r="V46" t="n">
-        <v>107.8060589873685</v>
+        <v>107.8060589873684</v>
       </c>
       <c r="W46" t="n">
         <v>132.9729450579817</v>
       </c>
       <c r="X46" t="n">
-        <v>78.61804705378486</v>
+        <v>78.61804705378481</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.49291480985255</v>
+        <v>69.49291480985249</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1420.475591925367</v>
+        <v>1582.624857960486</v>
       </c>
       <c r="C11" t="n">
-        <v>1128.014910995381</v>
+        <v>1582.624857960486</v>
       </c>
       <c r="D11" t="n">
-        <v>982.1719277542104</v>
+        <v>1299.273970924916</v>
       </c>
       <c r="E11" t="n">
-        <v>676.8592855975238</v>
+        <v>993.9613287682298</v>
       </c>
       <c r="F11" t="n">
-        <v>676.8592855975238</v>
+        <v>676.8592855975232</v>
       </c>
       <c r="G11" t="n">
-        <v>350.7724894515934</v>
+        <v>350.7724894515929</v>
       </c>
       <c r="H11" t="n">
-        <v>112.9966865927292</v>
+        <v>112.9966865927291</v>
       </c>
       <c r="I11" t="n">
         <v>50.62946896650838</v>
       </c>
       <c r="J11" t="n">
-        <v>50.62946896650838</v>
+        <v>167.8898957891594</v>
       </c>
       <c r="K11" t="n">
-        <v>287.3437014730027</v>
+        <v>475.8660968434992</v>
       </c>
       <c r="L11" t="n">
-        <v>719.3854188986284</v>
+        <v>907.9078142691246</v>
       </c>
       <c r="M11" t="n">
-        <v>1206.264733422301</v>
+        <v>1394.787128792797</v>
       </c>
       <c r="N11" t="n">
-        <v>1679.751435877381</v>
+        <v>1868.273831247877</v>
       </c>
       <c r="O11" t="n">
-        <v>2074.608513181865</v>
+        <v>2263.130908552361</v>
       </c>
       <c r="P11" t="n">
         <v>2379.45243345884</v>
@@ -5066,25 +5066,25 @@
         <v>2531.473448325419</v>
       </c>
       <c r="S11" t="n">
-        <v>2531.473448325419</v>
+        <v>2446.116517993686</v>
       </c>
       <c r="T11" t="n">
-        <v>2398.969432974497</v>
+        <v>2313.612502642764</v>
       </c>
       <c r="U11" t="n">
-        <v>2233.600703438711</v>
+        <v>2148.243773106978</v>
       </c>
       <c r="V11" t="n">
-        <v>1986.094507071859</v>
+        <v>2148.243773106978</v>
       </c>
       <c r="W11" t="n">
-        <v>1713.032654666667</v>
+        <v>1875.181920701786</v>
       </c>
       <c r="X11" t="n">
-        <v>1420.475591925367</v>
+        <v>1582.624857960486</v>
       </c>
       <c r="Y11" t="n">
-        <v>1420.475591925367</v>
+        <v>1582.624857960486</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5094,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8160247953523</v>
+        <v>916.8160247953526</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1123520363071</v>
+        <v>755.1123520363074</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2737150265191</v>
+        <v>616.2737150265194</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2457050833902</v>
+        <v>469.2457050833906</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5519070332646</v>
+        <v>334.551907033265</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1145329967717</v>
+        <v>206.1145329967713</v>
       </c>
       <c r="H12" t="n">
-        <v>108.988339229305</v>
+        <v>108.9883392293048</v>
       </c>
       <c r="I12" t="n">
         <v>50.62946896650838</v>
       </c>
       <c r="J12" t="n">
-        <v>137.8412826713652</v>
+        <v>50.62946896650838</v>
       </c>
       <c r="K12" t="n">
-        <v>137.8412826713652</v>
+        <v>326.1949684772724</v>
       </c>
       <c r="L12" t="n">
-        <v>565.6165800181446</v>
+        <v>753.9702658240518</v>
       </c>
       <c r="M12" t="n">
-        <v>935.1337504152591</v>
+        <v>1311.300375868888</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.609633092749</v>
+        <v>1896.776258546378</v>
       </c>
       <c r="O12" t="n">
         <v>1980.697452177627</v>
       </c>
       <c r="P12" t="n">
-        <v>2337.27937086485</v>
+        <v>2337.279370864851</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.473448325419</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.764525077352</v>
+        <v>2489.764525077353</v>
       </c>
       <c r="S12" t="n">
         <v>2342.372574742914</v>
@@ -5160,7 +5160,7 @@
         <v>1466.67378204924</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.756793927034</v>
+        <v>1268.756793927035</v>
       </c>
       <c r="Y12" t="n">
         <v>1076.235467576613</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.2369619108949</v>
+        <v>197.5616310986374</v>
       </c>
       <c r="C13" t="n">
-        <v>434.0940701097818</v>
+        <v>197.5616310986374</v>
       </c>
       <c r="D13" t="n">
-        <v>370.4952546747511</v>
+        <v>197.5616310986374</v>
       </c>
       <c r="E13" t="n">
-        <v>307.9593181732765</v>
+        <v>197.5616310986374</v>
       </c>
       <c r="F13" t="n">
-        <v>244.9517409362603</v>
+        <v>197.5616310986374</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7491402500455</v>
+        <v>118.3590304124227</v>
       </c>
       <c r="H13" t="n">
-        <v>98.01957880413089</v>
+        <v>50.62946896650838</v>
       </c>
       <c r="I13" t="n">
         <v>50.62946896650838</v>
       </c>
       <c r="J13" t="n">
-        <v>96.37230697711976</v>
+        <v>96.37230697711988</v>
       </c>
       <c r="K13" t="n">
-        <v>245.4612840658816</v>
+        <v>245.4612840658819</v>
       </c>
       <c r="L13" t="n">
-        <v>469.3254075208836</v>
+        <v>469.325407520884</v>
       </c>
       <c r="M13" t="n">
-        <v>712.5092353858648</v>
+        <v>712.5092353858654</v>
       </c>
       <c r="N13" t="n">
-        <v>955.2302859933384</v>
+        <v>955.2302859933391</v>
       </c>
       <c r="O13" t="n">
         <v>1175.198196102595</v>
       </c>
       <c r="P13" t="n">
-        <v>1354.790993928171</v>
+        <v>1354.790993928172</v>
       </c>
       <c r="Q13" t="n">
-        <v>1424.743953635945</v>
+        <v>1424.743953635946</v>
       </c>
       <c r="R13" t="n">
-        <v>1424.743953635945</v>
+        <v>1375.6695341</v>
       </c>
       <c r="S13" t="n">
-        <v>1304.760746868955</v>
+        <v>1255.68632733301</v>
       </c>
       <c r="T13" t="n">
-        <v>1162.097716859135</v>
+        <v>1113.02329732319</v>
       </c>
       <c r="U13" t="n">
-        <v>964.3938680059176</v>
+        <v>915.3194484699731</v>
       </c>
       <c r="V13" t="n">
-        <v>793.1316413015469</v>
+        <v>762.668713229138</v>
       </c>
       <c r="W13" t="n">
-        <v>788.5784293488289</v>
+        <v>565.9853894837439</v>
       </c>
       <c r="X13" t="n">
-        <v>646.7990429814113</v>
+        <v>424.2060031163265</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.2369619108949</v>
+        <v>291.6439220458104</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1585.531495872798</v>
+        <v>1563.100620815407</v>
       </c>
       <c r="C14" t="n">
-        <v>1295.367352570149</v>
+        <v>1272.936477512758</v>
       </c>
       <c r="D14" t="n">
-        <v>1295.367352570149</v>
+        <v>991.8821281045248</v>
       </c>
       <c r="E14" t="n">
-        <v>992.3512480407994</v>
+        <v>688.8660235751752</v>
       </c>
       <c r="F14" t="n">
-        <v>669.9696727155133</v>
+        <v>366.4844482498891</v>
       </c>
       <c r="G14" t="n">
         <v>346.1794141969195</v>
@@ -5276,25 +5276,25 @@
         <v>50.62946896650838</v>
       </c>
       <c r="J14" t="n">
-        <v>131.388515285242</v>
+        <v>50.62946896650838</v>
       </c>
       <c r="K14" t="n">
-        <v>439.3647163395819</v>
+        <v>287.3437014730036</v>
       </c>
       <c r="L14" t="n">
-        <v>871.4064337652076</v>
+        <v>719.385418898629</v>
       </c>
       <c r="M14" t="n">
-        <v>1358.28574828888</v>
+        <v>1206.264733422302</v>
       </c>
       <c r="N14" t="n">
-        <v>1831.77245074396</v>
+        <v>1679.751435877381</v>
       </c>
       <c r="O14" t="n">
-        <v>2226.629528048444</v>
+        <v>2074.608513181865</v>
       </c>
       <c r="P14" t="n">
-        <v>2531.473448325419</v>
+        <v>2379.45243345884</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.473448325419</v>
@@ -5306,22 +5306,22 @@
         <v>2448.413055621023</v>
       </c>
       <c r="T14" t="n">
-        <v>2448.413055621023</v>
+        <v>2318.205577897437</v>
       </c>
       <c r="U14" t="n">
-        <v>2285.340863712574</v>
+        <v>2155.133385988988</v>
       </c>
       <c r="V14" t="n">
-        <v>2040.131204973059</v>
+        <v>2155.133385988988</v>
       </c>
       <c r="W14" t="n">
-        <v>2040.131204973059</v>
+        <v>2155.133385988988</v>
       </c>
       <c r="X14" t="n">
-        <v>1749.870679859096</v>
+        <v>1864.872860875025</v>
       </c>
       <c r="Y14" t="n">
-        <v>1749.870679859096</v>
+        <v>1563.100620815407</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.8160247953516</v>
+        <v>916.8160247953526</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1123520363063</v>
+        <v>755.1123520363074</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2737150265184</v>
+        <v>616.2737150265194</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2457050833897</v>
+        <v>469.2457050833906</v>
       </c>
       <c r="F15" t="n">
-        <v>334.551907033264</v>
+        <v>334.551907033265</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1145329967713</v>
+        <v>206.1145329967723</v>
       </c>
       <c r="H15" t="n">
         <v>108.9883392293048</v>
@@ -5358,46 +5358,46 @@
         <v>50.62946896650838</v>
       </c>
       <c r="K15" t="n">
-        <v>50.62946896650838</v>
+        <v>326.1949684772724</v>
       </c>
       <c r="L15" t="n">
-        <v>478.4047663132879</v>
+        <v>753.9702658240518</v>
       </c>
       <c r="M15" t="n">
-        <v>1035.734876358124</v>
+        <v>1311.300375868888</v>
       </c>
       <c r="N15" t="n">
-        <v>1621.210759035615</v>
+        <v>1714.803710553319</v>
       </c>
       <c r="O15" t="n">
-        <v>2081.298578120492</v>
+        <v>2174.891529638196</v>
       </c>
       <c r="P15" t="n">
-        <v>2437.880496807715</v>
+        <v>2531.473448325419</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.473448325419</v>
       </c>
       <c r="R15" t="n">
-        <v>2489.764525077352</v>
+        <v>2489.764525077353</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.372574742913</v>
+        <v>2342.372574742914</v>
       </c>
       <c r="T15" t="n">
-        <v>2154.860912746902</v>
+        <v>2154.860912746903</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.385273367595</v>
+        <v>1936.385273367596</v>
       </c>
       <c r="V15" t="n">
-        <v>1707.989650815929</v>
+        <v>1707.98965081593</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.673782049239</v>
+        <v>1466.67378204924</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.756793927034</v>
+        <v>1268.756793927035</v>
       </c>
       <c r="Y15" t="n">
         <v>1076.235467576613</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4035524181639</v>
+        <v>420.3148443457602</v>
       </c>
       <c r="C16" t="n">
-        <v>264.4035524181639</v>
+        <v>420.3148443457602</v>
       </c>
       <c r="D16" t="n">
-        <v>237.012931268903</v>
+        <v>359.0125665380665</v>
       </c>
       <c r="E16" t="n">
-        <v>176.7735323947654</v>
+        <v>298.7731676639289</v>
       </c>
       <c r="F16" t="n">
-        <v>116.062492785086</v>
+        <v>238.0621280542495</v>
       </c>
       <c r="G16" t="n">
-        <v>116.062492785086</v>
+        <v>161.1560649953716</v>
       </c>
       <c r="H16" t="n">
-        <v>50.62946896650838</v>
+        <v>95.72304117679397</v>
       </c>
       <c r="I16" t="n">
         <v>50.62946896650838</v>
       </c>
       <c r="J16" t="n">
-        <v>98.62314350567266</v>
+        <v>98.62314350567263</v>
       </c>
       <c r="K16" t="n">
         <v>249.9629571229874</v>
@@ -5443,10 +5443,10 @@
         <v>476.0779171065423</v>
       </c>
       <c r="M16" t="n">
-        <v>721.5125815000764</v>
+        <v>721.5125815000763</v>
       </c>
       <c r="N16" t="n">
-        <v>966.4844686361029</v>
+        <v>966.4844686361027</v>
       </c>
       <c r="O16" t="n">
         <v>1188.703215273912</v>
@@ -5458,28 +5458,28 @@
         <v>1442.750645864368</v>
       </c>
       <c r="R16" t="n">
-        <v>1442.750645864368</v>
+        <v>1395.972763955759</v>
       </c>
       <c r="S16" t="n">
-        <v>1325.063976724715</v>
+        <v>1278.286094816105</v>
       </c>
       <c r="T16" t="n">
-        <v>1184.697484342232</v>
+        <v>1137.919602433622</v>
       </c>
       <c r="U16" t="n">
-        <v>989.2901731163515</v>
+        <v>942.5122912077417</v>
       </c>
       <c r="V16" t="n">
-        <v>820.3244840393177</v>
+        <v>942.5122912077417</v>
       </c>
       <c r="W16" t="n">
-        <v>625.9376979212603</v>
+        <v>781.8489898488567</v>
       </c>
       <c r="X16" t="n">
-        <v>486.4548491811796</v>
+        <v>642.366141108776</v>
       </c>
       <c r="Y16" t="n">
-        <v>356.1893057380002</v>
+        <v>512.1005976655965</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>1351.516547223182</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.18550693036</v>
+        <v>1137.185506930361</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9642605319549</v>
+        <v>931.9642605319552</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7812590124329</v>
+        <v>704.7812590124332</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2327866969743</v>
+        <v>458.2327866969746</v>
       </c>
       <c r="G17" t="n">
         <v>210.275631188208</v>
@@ -5513,16 +5513,16 @@
         <v>50.62946896650838</v>
       </c>
       <c r="J17" t="n">
-        <v>167.8898957891595</v>
+        <v>50.62946896650838</v>
       </c>
       <c r="K17" t="n">
-        <v>287.3437014730027</v>
+        <v>358.6056700208482</v>
       </c>
       <c r="L17" t="n">
-        <v>719.3854188986284</v>
+        <v>790.6473874464737</v>
       </c>
       <c r="M17" t="n">
-        <v>1206.264733422301</v>
+        <v>1206.264733422302</v>
       </c>
       <c r="N17" t="n">
         <v>1679.751435877381</v>
@@ -5549,10 +5549,10 @@
         <v>2382.632695018472</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.256139288784</v>
+        <v>2213.256139288785</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.323927520756</v>
+        <v>2018.323927520757</v>
       </c>
       <c r="X17" t="n">
         <v>1803.896505416621</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.8160247953526</v>
+        <v>916.8160247953516</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1123520363074</v>
+        <v>755.1123520363063</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2737150265194</v>
+        <v>616.2737150265184</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2457050833906</v>
+        <v>469.2457050833897</v>
       </c>
       <c r="F18" t="n">
-        <v>334.551907033265</v>
+        <v>334.551907033264</v>
       </c>
       <c r="G18" t="n">
-        <v>206.1145329967723</v>
+        <v>206.1145329967713</v>
       </c>
       <c r="H18" t="n">
-        <v>108.9883392293058</v>
+        <v>108.9883392293048</v>
       </c>
       <c r="I18" t="n">
         <v>50.62946896650838</v>
       </c>
       <c r="J18" t="n">
-        <v>137.8412826713652</v>
+        <v>50.62946896650838</v>
       </c>
       <c r="K18" t="n">
-        <v>413.4067821821292</v>
+        <v>326.1949684772724</v>
       </c>
       <c r="L18" t="n">
-        <v>841.1820795289086</v>
+        <v>753.9702658240518</v>
       </c>
       <c r="M18" t="n">
-        <v>1398.512189573745</v>
+        <v>935.1337504152599</v>
       </c>
       <c r="N18" t="n">
-        <v>1983.988072251235</v>
+        <v>1520.60963309275</v>
       </c>
       <c r="O18" t="n">
-        <v>2444.075891336113</v>
+        <v>1980.697452177627</v>
       </c>
       <c r="P18" t="n">
-        <v>2531.473448325419</v>
+        <v>2337.279370864851</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.473448325419</v>
@@ -5622,19 +5622,19 @@
         <v>2342.372574742914</v>
       </c>
       <c r="T18" t="n">
-        <v>2154.860912746903</v>
+        <v>2154.860912746902</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.385273367596</v>
+        <v>1936.385273367595</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.98965081593</v>
+        <v>1707.989650815929</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.67378204924</v>
+        <v>1466.673782049239</v>
       </c>
       <c r="X18" t="n">
-        <v>1268.756793927035</v>
+        <v>1268.756793927034</v>
       </c>
       <c r="Y18" t="n">
         <v>1076.235467576613</v>
@@ -5674,37 +5674,37 @@
         <v>50.62946896650838</v>
       </c>
       <c r="K19" t="n">
-        <v>112.0258825650341</v>
+        <v>112.025882565034</v>
       </c>
       <c r="L19" t="n">
-        <v>248.1974425297999</v>
+        <v>248.1974425297998</v>
       </c>
       <c r="M19" t="n">
-        <v>403.6887069045449</v>
+        <v>403.6887069045448</v>
       </c>
       <c r="N19" t="n">
-        <v>558.7171940217822</v>
+        <v>558.7171940217821</v>
       </c>
       <c r="O19" t="n">
-        <v>690.9925406408022</v>
+        <v>690.9925406408021</v>
       </c>
       <c r="P19" t="n">
-        <v>782.8927749761426</v>
+        <v>782.8927749761424</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.8927749761426</v>
+        <v>782.8927749761424</v>
       </c>
       <c r="R19" t="n">
-        <v>782.8927749761426</v>
+        <v>782.8927749761424</v>
       </c>
       <c r="S19" t="n">
-        <v>741.0392088463167</v>
+        <v>583.544383417265</v>
       </c>
       <c r="T19" t="n">
-        <v>676.5058194736615</v>
+        <v>519.0109940446098</v>
       </c>
       <c r="U19" t="n">
-        <v>556.9316112576087</v>
+        <v>399.4367858285569</v>
       </c>
       <c r="V19" t="n">
         <v>306.3041997613507</v>
@@ -5729,16 +5729,16 @@
         <v>1351.516547223181</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.185506930359</v>
+        <v>1137.18550693036</v>
       </c>
       <c r="D20" t="n">
-        <v>931.964260531954</v>
+        <v>931.9642605319541</v>
       </c>
       <c r="E20" t="n">
-        <v>704.781259012432</v>
+        <v>704.7812590124321</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2327866969739</v>
+        <v>458.2327866969736</v>
       </c>
       <c r="G20" t="n">
         <v>210.275631188208</v>
@@ -5750,16 +5750,16 @@
         <v>50.62946896650838</v>
       </c>
       <c r="J20" t="n">
-        <v>167.8898957891595</v>
+        <v>167.8898957891594</v>
       </c>
       <c r="K20" t="n">
-        <v>475.8660968434994</v>
+        <v>475.8660968434992</v>
       </c>
       <c r="L20" t="n">
-        <v>907.9078142691251</v>
+        <v>907.9078142691246</v>
       </c>
       <c r="M20" t="n">
-        <v>1394.787128792798</v>
+        <v>1206.264733422302</v>
       </c>
       <c r="N20" t="n">
         <v>1679.751435877381</v>
@@ -5786,10 +5786,10 @@
         <v>2382.632695018471</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.256139288783</v>
+        <v>2213.256139288784</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.323927520755</v>
+        <v>2018.323927520756</v>
       </c>
       <c r="X20" t="n">
         <v>1803.89650541662</v>
@@ -5805,55 +5805,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8160247953526</v>
+        <v>916.8160247953523</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1123520363074</v>
+        <v>755.1123520363071</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2737150265194</v>
+        <v>616.2737150265191</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2457050833906</v>
+        <v>469.2457050833902</v>
       </c>
       <c r="F21" t="n">
-        <v>334.551907033265</v>
+        <v>334.5519070332646</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1145329967723</v>
+        <v>206.1145329967715</v>
       </c>
       <c r="H21" t="n">
-        <v>108.9883392293058</v>
+        <v>108.9883392293048</v>
       </c>
       <c r="I21" t="n">
         <v>50.62946896650838</v>
       </c>
       <c r="J21" t="n">
-        <v>137.8412826713652</v>
+        <v>50.62946896650838</v>
       </c>
       <c r="K21" t="n">
-        <v>413.4067821821292</v>
+        <v>326.1949684772724</v>
       </c>
       <c r="L21" t="n">
-        <v>841.1820795289086</v>
+        <v>571.9977178309921</v>
       </c>
       <c r="M21" t="n">
-        <v>1398.512189573745</v>
+        <v>1129.327827875828</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.609633092749</v>
+        <v>1714.803710553319</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.697452177627</v>
+        <v>2174.891529638196</v>
       </c>
       <c r="P21" t="n">
-        <v>2337.27937086485</v>
+        <v>2531.473448325419</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.473448325419</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.764525077353</v>
+        <v>2489.764525077352</v>
       </c>
       <c r="S21" t="n">
         <v>2342.372574742914</v>
@@ -5871,7 +5871,7 @@
         <v>1466.67378204924</v>
       </c>
       <c r="X21" t="n">
-        <v>1268.756793927035</v>
+        <v>1268.756793927034</v>
       </c>
       <c r="Y21" t="n">
         <v>1076.235467576613</v>
@@ -5911,43 +5911,43 @@
         <v>50.62946896650838</v>
       </c>
       <c r="K22" t="n">
-        <v>112.0258825650341</v>
+        <v>112.025882565034</v>
       </c>
       <c r="L22" t="n">
-        <v>248.1974425297999</v>
+        <v>248.1974425297998</v>
       </c>
       <c r="M22" t="n">
-        <v>403.6887069045449</v>
+        <v>403.6887069045448</v>
       </c>
       <c r="N22" t="n">
-        <v>558.7171940217822</v>
+        <v>558.7171940217821</v>
       </c>
       <c r="O22" t="n">
-        <v>690.9925406408022</v>
+        <v>690.9925406408021</v>
       </c>
       <c r="P22" t="n">
-        <v>782.8927749761426</v>
+        <v>782.8927749761424</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.8927749761426</v>
+        <v>782.8927749761424</v>
       </c>
       <c r="R22" t="n">
-        <v>782.8927749761426</v>
+        <v>782.8927749761424</v>
       </c>
       <c r="S22" t="n">
-        <v>741.0392088463167</v>
+        <v>583.544383417265</v>
       </c>
       <c r="T22" t="n">
-        <v>676.5058194736615</v>
+        <v>519.0109940446098</v>
       </c>
       <c r="U22" t="n">
-        <v>556.9316112576087</v>
+        <v>399.4367858285569</v>
       </c>
       <c r="V22" t="n">
-        <v>463.7990251904024</v>
+        <v>306.3041997613507</v>
       </c>
       <c r="W22" t="n">
-        <v>345.2453420821726</v>
+        <v>187.7505166531209</v>
       </c>
       <c r="X22" t="n">
         <v>124.1007709228678</v>
@@ -5966,13 +5966,13 @@
         <v>1351.516547223181</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.185506930359</v>
+        <v>1137.18550693036</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9642605319541</v>
+        <v>931.9642605319546</v>
       </c>
       <c r="E23" t="n">
-        <v>704.781259012432</v>
+        <v>704.7812590124325</v>
       </c>
       <c r="F23" t="n">
         <v>458.232786696974</v>
@@ -5987,25 +5987,25 @@
         <v>50.62946896650838</v>
       </c>
       <c r="J23" t="n">
-        <v>131.388515285242</v>
+        <v>50.62946896650838</v>
       </c>
       <c r="K23" t="n">
-        <v>439.3647163395819</v>
+        <v>358.6056700208482</v>
       </c>
       <c r="L23" t="n">
-        <v>871.4064337652076</v>
+        <v>790.6473874464737</v>
       </c>
       <c r="M23" t="n">
-        <v>1358.28574828888</v>
+        <v>1277.526701970146</v>
       </c>
       <c r="N23" t="n">
-        <v>1831.77245074396</v>
+        <v>1751.013404425226</v>
       </c>
       <c r="O23" t="n">
-        <v>2226.629528048444</v>
+        <v>2145.87048172971</v>
       </c>
       <c r="P23" t="n">
-        <v>2531.473448325419</v>
+        <v>2379.45243345884</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.473448325419</v>
@@ -6020,13 +6020,13 @@
         <v>2469.871783917092</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.632695018471</v>
+        <v>2382.632695018472</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.256139288783</v>
+        <v>2213.256139288784</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.323927520755</v>
+        <v>2018.323927520756</v>
       </c>
       <c r="X23" t="n">
         <v>1803.89650541662</v>
@@ -6066,25 +6066,25 @@
         <v>50.62946896650838</v>
       </c>
       <c r="J24" t="n">
-        <v>137.8412826713652</v>
+        <v>137.8412826713651</v>
       </c>
       <c r="K24" t="n">
-        <v>413.4067821821292</v>
+        <v>413.4067821821291</v>
       </c>
       <c r="L24" t="n">
-        <v>413.4067821821292</v>
+        <v>841.1820795289086</v>
       </c>
       <c r="M24" t="n">
-        <v>970.7368922269657</v>
+        <v>1398.512189573745</v>
       </c>
       <c r="N24" t="n">
-        <v>1556.212774904456</v>
+        <v>1520.609633092749</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.300593989333</v>
+        <v>1980.697452177626</v>
       </c>
       <c r="P24" t="n">
-        <v>2372.882512676557</v>
+        <v>2337.27937086485</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.473448325418</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.2105056085589</v>
+        <v>53.71568017950727</v>
       </c>
       <c r="C25" t="n">
-        <v>209.1972544446104</v>
+        <v>51.70242901555868</v>
       </c>
       <c r="D25" t="n">
-        <v>209.1972544446104</v>
+        <v>51.70242901555868</v>
       </c>
       <c r="E25" t="n">
-        <v>57.18824020592919</v>
+        <v>51.70242901555868</v>
       </c>
       <c r="F25" t="n">
-        <v>57.18824020592919</v>
+        <v>51.70242901555868</v>
       </c>
       <c r="G25" t="n">
         <v>50.62946896650838</v>
@@ -6148,49 +6148,49 @@
         <v>50.62946896650838</v>
       </c>
       <c r="K25" t="n">
-        <v>112.0258825650341</v>
+        <v>112.025882565034</v>
       </c>
       <c r="L25" t="n">
-        <v>248.1974425297999</v>
+        <v>248.1974425297998</v>
       </c>
       <c r="M25" t="n">
-        <v>403.6887069045449</v>
+        <v>403.6887069045448</v>
       </c>
       <c r="N25" t="n">
-        <v>558.7171940217822</v>
+        <v>558.7171940217821</v>
       </c>
       <c r="O25" t="n">
-        <v>690.9925406408022</v>
+        <v>690.9925406408021</v>
       </c>
       <c r="P25" t="n">
-        <v>782.8927749761426</v>
+        <v>782.8927749761424</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.8927749761426</v>
+        <v>782.8927749761424</v>
       </c>
       <c r="R25" t="n">
-        <v>782.8927749761426</v>
+        <v>782.8927749761424</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0392088463167</v>
+        <v>741.0392088463165</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5058194736615</v>
+        <v>676.5058194736613</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9316112576087</v>
+        <v>556.9316112576084</v>
       </c>
       <c r="V25" t="n">
-        <v>463.7990251904024</v>
+        <v>306.3041997613507</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2453420821726</v>
+        <v>187.7505166531209</v>
       </c>
       <c r="X25" t="n">
-        <v>281.5955963519195</v>
+        <v>124.1007709228678</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.1631559185677</v>
+        <v>69.66833048951598</v>
       </c>
     </row>
     <row r="26">
@@ -6209,16 +6209,16 @@
         <v>1255.822557107556</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5734875774506</v>
+        <v>964.5734875774504</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9589472514089</v>
+        <v>653.9589472514083</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9357237320596</v>
+        <v>341.9357237320597</v>
       </c>
       <c r="H26" t="n">
-        <v>118.2234934997767</v>
+        <v>118.2234934997768</v>
       </c>
       <c r="I26" t="n">
         <v>69.91984850013709</v>
@@ -6230,31 +6230,31 @@
         <v>698.1090184202249</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.382401435962</v>
+        <v>1231.627006867399</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.737986981183</v>
+        <v>1819.98259241262</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.700960457811</v>
+        <v>2394.945565889248</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.034308783844</v>
+        <v>2891.27891421528</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.354500082367</v>
+        <v>3196.354500082366</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.851785970495</v>
+        <v>3449.851785970494</v>
       </c>
       <c r="R26" t="n">
-        <v>3495.992425006855</v>
+        <v>3495.992425006854</v>
       </c>
       <c r="S26" t="n">
         <v>3424.699067301702</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.258624577361</v>
+        <v>3306.25862457736</v>
       </c>
       <c r="U26" t="n">
         <v>3154.953467668156</v>
@@ -6303,25 +6303,25 @@
         <v>69.91984850013709</v>
       </c>
       <c r="J27" t="n">
-        <v>69.91984850013709</v>
+        <v>157.1316622049939</v>
       </c>
       <c r="K27" t="n">
-        <v>345.4853480109012</v>
+        <v>432.6971617157578</v>
       </c>
       <c r="L27" t="n">
-        <v>773.2606453576807</v>
+        <v>860.4724590625373</v>
       </c>
       <c r="M27" t="n">
-        <v>1148.618207409456</v>
+        <v>1417.802569107374</v>
       </c>
       <c r="N27" t="n">
-        <v>1734.094090086946</v>
+        <v>1539.900012626377</v>
       </c>
       <c r="O27" t="n">
-        <v>2194.181909171824</v>
+        <v>1999.987831711255</v>
       </c>
       <c r="P27" t="n">
-        <v>2550.763827859047</v>
+        <v>2356.569750398478</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.763827859047</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0823330584554</v>
+        <v>435.0823330584556</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0030138839235</v>
+        <v>369.0030138839236</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4677710754739</v>
+        <v>319.4677710754741</v>
       </c>
       <c r="E28" t="n">
-        <v>270.9954072005805</v>
+        <v>270.9954072005807</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0514025901454</v>
+        <v>222.0514025901456</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9123745305118</v>
+        <v>156.9123745305119</v>
       </c>
       <c r="H28" t="n">
         <v>103.2463857111784</v>
@@ -6382,22 +6382,22 @@
         <v>69.91984850013709</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4463940420606</v>
+        <v>129.4463940420605</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3190786621347</v>
+        <v>292.3190786621345</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9669096484489</v>
+        <v>529.9669096484488</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9344450447425</v>
+        <v>786.9344450447421</v>
       </c>
       <c r="N28" t="n">
         <v>1043.439203183528</v>
       </c>
       <c r="O28" t="n">
-        <v>1277.190820824097</v>
+        <v>1277.190820824096</v>
       </c>
       <c r="P28" t="n">
         <v>1470.567326180985</v>
@@ -6409,7 +6409,7 @@
         <v>1519.293146510706</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.373512370297</v>
+        <v>1413.373512370296</v>
       </c>
       <c r="T28" t="n">
         <v>1284.774054987058</v>
@@ -6427,7 +6427,7 @@
         <v>633.5995598229829</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1010513790475</v>
+        <v>515.1010513790476</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.50697981995</v>
+        <v>1803.506979819949</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.109871516545</v>
+        <v>1525.109871516544</v>
       </c>
       <c r="D29" t="n">
         <v>1255.822557107556</v>
       </c>
       <c r="E29" t="n">
-        <v>964.573487577451</v>
+        <v>964.5734875774506</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9589472514091</v>
+        <v>653.9589472514087</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9357237320598</v>
+        <v>341.9357237320597</v>
       </c>
       <c r="H29" t="n">
         <v>118.2234934997768</v>
@@ -6461,13 +6461,13 @@
         <v>69.91984850013709</v>
       </c>
       <c r="J29" t="n">
-        <v>288.6565463443366</v>
+        <v>187.4119409128994</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1090184202249</v>
+        <v>596.8644129887876</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.627006867399</v>
+        <v>1130.382401435962</v>
       </c>
       <c r="M29" t="n">
         <v>1718.737986981183</v>
@@ -6491,19 +6491,19 @@
         <v>3424.699067301702</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.25862457736</v>
+        <v>3306.258624577361</v>
       </c>
       <c r="U29" t="n">
         <v>3154.953467668156</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.510843927886</v>
+        <v>2921.510843927885</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.512564149275</v>
+        <v>2662.512564149274</v>
       </c>
       <c r="X29" t="n">
-        <v>2384.019074034556</v>
+        <v>2384.019074034555</v>
       </c>
       <c r="Y29" t="n">
         <v>2094.013868974181</v>
@@ -6543,16 +6543,16 @@
         <v>157.1316622049939</v>
       </c>
       <c r="K30" t="n">
-        <v>432.6971617157579</v>
+        <v>432.6971617157578</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4724590625374</v>
+        <v>860.4724590625373</v>
       </c>
       <c r="M30" t="n">
         <v>1417.802569107374</v>
       </c>
       <c r="N30" t="n">
-        <v>1539.900012626377</v>
+        <v>1539.900012626378</v>
       </c>
       <c r="O30" t="n">
         <v>1999.987831711255</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0823330584557</v>
+        <v>435.0823330584556</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0030138839237</v>
+        <v>369.0030138839236</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4677710754742</v>
+        <v>319.4677710754741</v>
       </c>
       <c r="E31" t="n">
-        <v>270.9954072005808</v>
+        <v>270.9954072005807</v>
       </c>
       <c r="F31" t="n">
         <v>222.0514025901456</v>
@@ -6613,22 +6613,22 @@
         <v>156.9123745305119</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2463857111785</v>
+        <v>103.2463857111784</v>
       </c>
       <c r="I31" t="n">
         <v>69.91984850013709</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4463940420603</v>
+        <v>129.4463940420606</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3190786621344</v>
+        <v>292.3190786621346</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9669096484486</v>
+        <v>529.9669096484488</v>
       </c>
       <c r="M31" t="n">
-        <v>786.934445044742</v>
+        <v>786.9344450447421</v>
       </c>
       <c r="N31" t="n">
         <v>1043.439203183528</v>
@@ -6655,16 +6655,16 @@
         <v>1101.133778760422</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9351246826324</v>
+        <v>943.9351246826322</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3153735638192</v>
+        <v>761.3153735638191</v>
       </c>
       <c r="X31" t="n">
         <v>633.5995598229827</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1010513790477</v>
+        <v>515.1010513790476</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>69.91984850013709</v>
       </c>
       <c r="J32" t="n">
-        <v>187.4119409128985</v>
+        <v>288.6565463443366</v>
       </c>
       <c r="K32" t="n">
-        <v>596.8644129887869</v>
+        <v>596.8644129887876</v>
       </c>
       <c r="L32" t="n">
-        <v>1130.382401435961</v>
+        <v>1130.382401435962</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.737986981182</v>
+        <v>1718.737986981183</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.70096045781</v>
+        <v>2293.700960457811</v>
       </c>
       <c r="O32" t="n">
         <v>2790.034308783843</v>
@@ -6777,25 +6777,25 @@
         <v>69.91984850013709</v>
       </c>
       <c r="J33" t="n">
-        <v>69.91984850013709</v>
+        <v>157.1316622049939</v>
       </c>
       <c r="K33" t="n">
-        <v>163.5128000178401</v>
+        <v>432.6971617157578</v>
       </c>
       <c r="L33" t="n">
-        <v>591.2880973646196</v>
+        <v>860.4724590625373</v>
       </c>
       <c r="M33" t="n">
-        <v>1148.618207409456</v>
+        <v>1417.802569107374</v>
       </c>
       <c r="N33" t="n">
-        <v>1734.094090086946</v>
+        <v>1539.900012626378</v>
       </c>
       <c r="O33" t="n">
-        <v>2194.181909171824</v>
+        <v>1999.987831711255</v>
       </c>
       <c r="P33" t="n">
-        <v>2550.763827859047</v>
+        <v>2356.569750398478</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.763827859047</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0823330584551</v>
+        <v>435.0823330584552</v>
       </c>
       <c r="C34" t="n">
         <v>369.0030138839232</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4677710754737</v>
+        <v>319.4677710754738</v>
       </c>
       <c r="E34" t="n">
         <v>270.9954072005804</v>
@@ -6856,10 +6856,10 @@
         <v>69.91984850013709</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4463940420595</v>
+        <v>129.4463940420596</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3190786621336</v>
+        <v>292.3190786621337</v>
       </c>
       <c r="L34" t="n">
         <v>529.9669096484479</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.159255348711</v>
+        <v>1436.15925534871</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.362329672283</v>
+        <v>1208.362329672282</v>
       </c>
       <c r="D35" t="n">
-        <v>989.6751978902703</v>
+        <v>989.6751978902698</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0263109871414</v>
+        <v>749.026310987141</v>
       </c>
       <c r="F35" t="n">
-        <v>489.011953288076</v>
+        <v>489.0119532880756</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5889123957026</v>
+        <v>227.5889123957025</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7372916130474</v>
+        <v>171.7372916130475</v>
       </c>
       <c r="K35" t="n">
         <v>479.7134926673873</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7552100930129</v>
+        <v>911.7552100930128</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.634524616686</v>
+        <v>1398.634524616685</v>
       </c>
       <c r="N35" t="n">
         <v>1872.121227071765</v>
       </c>
       <c r="O35" t="n">
-        <v>2266.97830437625</v>
+        <v>2266.978304376249</v>
       </c>
       <c r="P35" t="n">
-        <v>2571.822224653225</v>
+        <v>2571.822224653224</v>
       </c>
       <c r="Q35" t="n">
-        <v>2723.843239519804</v>
+        <v>2723.843239519803</v>
       </c>
       <c r="R35" t="n">
-        <v>2723.843239519804</v>
+        <v>2723.843239519803</v>
       </c>
       <c r="S35" t="n">
-        <v>2703.150064441627</v>
+        <v>2703.150064441626</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.309804344262</v>
+        <v>2635.309804344261</v>
       </c>
       <c r="U35" t="n">
-        <v>2534.604830062035</v>
+        <v>2534.604830062034</v>
       </c>
       <c r="V35" t="n">
         <v>2351.76238894874</v>
       </c>
       <c r="W35" t="n">
-        <v>2143.364291797106</v>
+        <v>2143.364291797105</v>
       </c>
       <c r="X35" t="n">
         <v>1915.470984309363</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.065961875966</v>
+        <v>1676.065961875965</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>473.0931009072773</v>
       </c>
       <c r="F36" t="n">
-        <v>338.3993028571517</v>
+        <v>338.3993028571516</v>
       </c>
       <c r="G36" t="n">
         <v>209.961928820659</v>
       </c>
       <c r="H36" t="n">
-        <v>112.8357350531925</v>
+        <v>112.8357350531924</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="J36" t="n">
-        <v>141.6886784952529</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="K36" t="n">
-        <v>417.2541780060169</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="L36" t="n">
-        <v>845.0294753527965</v>
+        <v>482.2521621371755</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.359585397633</v>
+        <v>1039.582272182012</v>
       </c>
       <c r="N36" t="n">
-        <v>1524.457028916636</v>
+        <v>1625.058154859502</v>
       </c>
       <c r="O36" t="n">
-        <v>1984.544848001513</v>
+        <v>2085.145973944379</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.126766688737</v>
+        <v>2441.727892631603</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.320844149306</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.56065296296563</v>
+        <v>107.3308183635921</v>
       </c>
       <c r="C37" t="n">
-        <v>72.08151641541015</v>
+        <v>91.85168181603674</v>
       </c>
       <c r="D37" t="n">
-        <v>72.08151641541015</v>
+        <v>91.85168181603674</v>
       </c>
       <c r="E37" t="n">
-        <v>72.08151641541015</v>
+        <v>91.85168181603674</v>
       </c>
       <c r="F37" t="n">
-        <v>72.08151641541015</v>
+        <v>72.08151641540995</v>
       </c>
       <c r="G37" t="n">
-        <v>57.54267098275297</v>
+        <v>57.54267098275286</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="K37" t="n">
-        <v>115.8732783889218</v>
+        <v>115.8732783889217</v>
       </c>
       <c r="L37" t="n">
-        <v>252.0448383536876</v>
+        <v>252.0448383536875</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5361027284326</v>
+        <v>407.5361027284325</v>
       </c>
       <c r="N37" t="n">
-        <v>562.56458984567</v>
+        <v>562.5645898456698</v>
       </c>
       <c r="O37" t="n">
-        <v>694.83993646469</v>
+        <v>694.8399364646898</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7401708000305</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="Q37" t="n">
-        <v>786.7401708000305</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="R37" t="n">
-        <v>786.7401708000305</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="S37" t="n">
-        <v>711.6505538859717</v>
+        <v>731.4207192865975</v>
       </c>
       <c r="T37" t="n">
-        <v>633.6512791297096</v>
+        <v>653.4214445303355</v>
       </c>
       <c r="U37" t="n">
-        <v>500.6111855300498</v>
+        <v>520.3813509306758</v>
       </c>
       <c r="V37" t="n">
-        <v>394.0127140792366</v>
+        <v>413.7828794798627</v>
       </c>
       <c r="W37" t="n">
-        <v>261.9931455873999</v>
+        <v>281.7633109880262</v>
       </c>
       <c r="X37" t="n">
-        <v>184.8775144735399</v>
+        <v>204.6476798741663</v>
       </c>
       <c r="Y37" t="n">
-        <v>116.9791886565812</v>
+        <v>136.7493540572077</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.15925534871</v>
+        <v>1436.159255348711</v>
       </c>
       <c r="C38" t="n">
         <v>1208.362329672282</v>
       </c>
       <c r="D38" t="n">
-        <v>989.6751978902696</v>
+        <v>989.6751978902701</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0263109871407</v>
+        <v>749.0263109871412</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0119532880755</v>
+        <v>489.0119532880758</v>
       </c>
       <c r="G38" t="n">
         <v>227.5889123957025</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7372916130472</v>
+        <v>171.7372916130471</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7134926673871</v>
+        <v>479.7134926673869</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7552100930127</v>
+        <v>911.7552100930125</v>
       </c>
       <c r="M38" t="n">
         <v>1398.634524616685</v>
@@ -7187,31 +7187,31 @@
         <v>1872.121227071765</v>
       </c>
       <c r="O38" t="n">
-        <v>2266.97830437625</v>
+        <v>2266.978304376249</v>
       </c>
       <c r="P38" t="n">
-        <v>2571.822224653225</v>
+        <v>2571.822224653224</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.843239519804</v>
+        <v>2723.843239519802</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.843239519804</v>
+        <v>2723.843239519802</v>
       </c>
       <c r="S38" t="n">
-        <v>2703.150064441628</v>
+        <v>2703.150064441626</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.309804344263</v>
+        <v>2635.309804344262</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.604830062034</v>
+        <v>2534.604830062035</v>
       </c>
       <c r="V38" t="n">
         <v>2351.76238894874</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.364291797105</v>
+        <v>2143.364291797106</v>
       </c>
       <c r="X38" t="n">
         <v>1915.470984309363</v>
@@ -7239,34 +7239,34 @@
         <v>473.0931009072773</v>
       </c>
       <c r="F39" t="n">
-        <v>338.3993028571517</v>
+        <v>338.3993028571516</v>
       </c>
       <c r="G39" t="n">
         <v>209.961928820659</v>
       </c>
       <c r="H39" t="n">
-        <v>112.8357350531925</v>
+        <v>112.8357350531924</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="J39" t="n">
-        <v>141.6886784952529</v>
+        <v>141.6886784952528</v>
       </c>
       <c r="K39" t="n">
-        <v>417.2541780060169</v>
+        <v>417.2541780060168</v>
       </c>
       <c r="L39" t="n">
-        <v>845.0294753527965</v>
+        <v>738.232954881533</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.359585397633</v>
+        <v>1295.563064926369</v>
       </c>
       <c r="N39" t="n">
-        <v>1984.544848001513</v>
+        <v>1881.038947603859</v>
       </c>
       <c r="O39" t="n">
-        <v>1984.544848001513</v>
+        <v>2341.126766688737</v>
       </c>
       <c r="P39" t="n">
         <v>2341.126766688737</v>
@@ -7306,70 +7306,70 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.56065296296538</v>
+        <v>87.56065296296535</v>
       </c>
       <c r="C40" t="n">
-        <v>72.08151641540998</v>
+        <v>72.08151641540995</v>
       </c>
       <c r="D40" t="n">
-        <v>72.08151641540998</v>
+        <v>72.08151641540995</v>
       </c>
       <c r="E40" t="n">
-        <v>72.08151641540998</v>
+        <v>72.08151641540995</v>
       </c>
       <c r="F40" t="n">
-        <v>72.08151641540998</v>
+        <v>72.08151641540995</v>
       </c>
       <c r="G40" t="n">
-        <v>57.54267098275288</v>
+        <v>57.54267098275285</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="K40" t="n">
-        <v>115.8732783889218</v>
+        <v>115.8732783889217</v>
       </c>
       <c r="L40" t="n">
-        <v>252.0448383536876</v>
+        <v>252.0448383536875</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5361027284326</v>
+        <v>407.5361027284325</v>
       </c>
       <c r="N40" t="n">
-        <v>562.56458984567</v>
+        <v>562.5645898456698</v>
       </c>
       <c r="O40" t="n">
-        <v>694.83993646469</v>
+        <v>694.8399364646898</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7401708000305</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.7401708000305</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="R40" t="n">
-        <v>786.7401708000305</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="S40" t="n">
-        <v>711.6505538859709</v>
+        <v>711.6505538859707</v>
       </c>
       <c r="T40" t="n">
-        <v>633.6512791297089</v>
+        <v>633.6512791297087</v>
       </c>
       <c r="U40" t="n">
-        <v>500.6111855300491</v>
+        <v>500.611185530049</v>
       </c>
       <c r="V40" t="n">
-        <v>394.012714079236</v>
+        <v>394.0127140792359</v>
       </c>
       <c r="W40" t="n">
-        <v>261.9931455873995</v>
+        <v>261.9931455873994</v>
       </c>
       <c r="X40" t="n">
         <v>184.8775144735395</v>
@@ -7391,67 +7391,67 @@
         <v>1208.362329672282</v>
       </c>
       <c r="D41" t="n">
-        <v>989.6751978902701</v>
+        <v>989.6751978902696</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0263109871413</v>
+        <v>749.0263109871407</v>
       </c>
       <c r="F41" t="n">
-        <v>489.011953288076</v>
+        <v>489.0119532880753</v>
       </c>
       <c r="G41" t="n">
-        <v>227.5889123957026</v>
+        <v>227.5889123957025</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7372916130471</v>
+        <v>171.7372916130468</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7134926673868</v>
+        <v>479.7134926673866</v>
       </c>
       <c r="L41" t="n">
-        <v>911.7552100930125</v>
+        <v>911.7552100930121</v>
       </c>
       <c r="M41" t="n">
         <v>1398.634524616685</v>
       </c>
       <c r="N41" t="n">
-        <v>1872.121227071765</v>
+        <v>1872.121227071764</v>
       </c>
       <c r="O41" t="n">
-        <v>2266.97830437625</v>
+        <v>2266.978304376248</v>
       </c>
       <c r="P41" t="n">
-        <v>2571.822224653225</v>
+        <v>2571.822224653223</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.843239519804</v>
+        <v>2723.843239519802</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.843239519804</v>
+        <v>2723.843239519802</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.150064441628</v>
+        <v>2703.150064441626</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.309804344263</v>
+        <v>2635.309804344261</v>
       </c>
       <c r="U41" t="n">
         <v>2534.604830062035</v>
       </c>
       <c r="V41" t="n">
-        <v>2351.762388948741</v>
+        <v>2351.76238894874</v>
       </c>
       <c r="W41" t="n">
         <v>2143.364291797106</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.470984309364</v>
+        <v>1915.470984309363</v>
       </c>
       <c r="Y41" t="n">
         <v>1676.065961875966</v>
@@ -7476,25 +7476,25 @@
         <v>473.0931009072773</v>
       </c>
       <c r="F42" t="n">
-        <v>338.3993028571517</v>
+        <v>338.3993028571516</v>
       </c>
       <c r="G42" t="n">
         <v>209.961928820659</v>
       </c>
       <c r="H42" t="n">
-        <v>112.8357350531925</v>
+        <v>112.8357350531924</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="J42" t="n">
-        <v>141.6886784952529</v>
+        <v>141.6886784952528</v>
       </c>
       <c r="K42" t="n">
-        <v>417.2541780060169</v>
+        <v>417.2541780060168</v>
       </c>
       <c r="L42" t="n">
-        <v>845.0294753527965</v>
+        <v>845.0294753527962</v>
       </c>
       <c r="M42" t="n">
         <v>1402.359585397633</v>
@@ -7503,10 +7503,10 @@
         <v>1987.835468075123</v>
       </c>
       <c r="O42" t="n">
-        <v>2341.126766688737</v>
+        <v>2447.92328716</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.126766688737</v>
+        <v>2535.320844149306</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.320844149306</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.56065296296555</v>
+        <v>87.56065296296543</v>
       </c>
       <c r="C43" t="n">
-        <v>72.08151641541009</v>
+        <v>72.08151641541001</v>
       </c>
       <c r="D43" t="n">
-        <v>72.08151641541009</v>
+        <v>72.08151641541001</v>
       </c>
       <c r="E43" t="n">
-        <v>72.08151641541009</v>
+        <v>72.08151641541001</v>
       </c>
       <c r="F43" t="n">
-        <v>72.08151641541009</v>
+        <v>72.08151641541001</v>
       </c>
       <c r="G43" t="n">
-        <v>57.54267098275294</v>
+        <v>57.54267098275288</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039605</v>
       </c>
       <c r="K43" t="n">
-        <v>115.8732783889218</v>
+        <v>115.8732783889217</v>
       </c>
       <c r="L43" t="n">
-        <v>252.0448383536876</v>
+        <v>252.0448383536875</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5361027284326</v>
+        <v>407.5361027284325</v>
       </c>
       <c r="N43" t="n">
-        <v>562.56458984567</v>
+        <v>562.5645898456698</v>
       </c>
       <c r="O43" t="n">
-        <v>694.83993646469</v>
+        <v>694.8399364646898</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7401708000305</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7401708000305</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7401708000305</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4207192865977</v>
+        <v>711.650553885971</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4214445303356</v>
+        <v>633.651279129709</v>
       </c>
       <c r="U43" t="n">
-        <v>520.3813509306758</v>
+        <v>500.6111855300493</v>
       </c>
       <c r="V43" t="n">
-        <v>413.7828794798627</v>
+        <v>394.0127140792362</v>
       </c>
       <c r="W43" t="n">
-        <v>281.763310988026</v>
+        <v>261.9931455873996</v>
       </c>
       <c r="X43" t="n">
-        <v>204.647679874166</v>
+        <v>184.8775144735396</v>
       </c>
       <c r="Y43" t="n">
-        <v>116.9791886565811</v>
+        <v>116.979188656581</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1449.938481112731</v>
+        <v>1449.938481112732</v>
       </c>
       <c r="C44" t="n">
-        <v>1219.845017808966</v>
+        <v>1219.845017808967</v>
       </c>
       <c r="D44" t="n">
-        <v>998.8613483996164</v>
+        <v>998.8613483996176</v>
       </c>
       <c r="E44" t="n">
-        <v>755.9159238691507</v>
+        <v>755.9159238691518</v>
       </c>
       <c r="F44" t="n">
-        <v>493.6050285427484</v>
+        <v>493.6050285427496</v>
       </c>
       <c r="G44" t="n">
         <v>229.8854500230394</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7372916130472</v>
+        <v>171.7372916130471</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7134926673871</v>
+        <v>479.713492667387</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7552100930127</v>
+        <v>911.7552100930126</v>
       </c>
       <c r="M44" t="n">
         <v>1398.634524616685</v>
@@ -7667,31 +7667,31 @@
         <v>2571.822224653224</v>
       </c>
       <c r="Q44" t="n">
-        <v>2723.843239519804</v>
+        <v>2723.843239519803</v>
       </c>
       <c r="R44" t="n">
-        <v>2723.843239519804</v>
+        <v>2723.843239519803</v>
       </c>
       <c r="S44" t="n">
-        <v>2700.853526814291</v>
+        <v>2700.85352681429</v>
       </c>
       <c r="T44" t="n">
-        <v>2630.716729089589</v>
+        <v>2630.716729089588</v>
       </c>
       <c r="U44" t="n">
         <v>2527.715217180024</v>
       </c>
       <c r="V44" t="n">
-        <v>2342.576238439393</v>
+        <v>2342.576238439392</v>
       </c>
       <c r="W44" t="n">
-        <v>2164.033130443137</v>
+        <v>2131.881603660421</v>
       </c>
       <c r="X44" t="n">
-        <v>1933.843285328057</v>
+        <v>1901.691758545342</v>
       </c>
       <c r="Y44" t="n">
-        <v>1692.141725267323</v>
+        <v>1659.990198484608</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>473.0931009072773</v>
       </c>
       <c r="F45" t="n">
-        <v>338.3993028571517</v>
+        <v>338.3993028571516</v>
       </c>
       <c r="G45" t="n">
         <v>209.961928820659</v>
       </c>
       <c r="H45" t="n">
-        <v>112.8357350531925</v>
+        <v>112.8357350531924</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="J45" t="n">
-        <v>141.6886784952529</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="K45" t="n">
-        <v>417.254178006017</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="L45" t="n">
-        <v>845.0294753527965</v>
+        <v>482.2521621371755</v>
       </c>
       <c r="M45" t="n">
-        <v>1402.359585397633</v>
+        <v>1039.582272182012</v>
       </c>
       <c r="N45" t="n">
-        <v>1524.457028916636</v>
+        <v>1625.058154859502</v>
       </c>
       <c r="O45" t="n">
-        <v>1984.544848001513</v>
+        <v>2085.145973944379</v>
       </c>
       <c r="P45" t="n">
-        <v>2341.126766688737</v>
+        <v>2441.727892631603</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.320844149306</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.49094213983521</v>
+        <v>96.49094213983484</v>
       </c>
       <c r="C46" t="n">
-        <v>78.71526796494291</v>
+        <v>78.7152679649426</v>
       </c>
       <c r="D46" t="n">
-        <v>77.48367015613304</v>
+        <v>77.48367015613279</v>
       </c>
       <c r="E46" t="n">
-        <v>77.31495128087928</v>
+        <v>77.31495128087909</v>
       </c>
       <c r="F46" t="n">
-        <v>76.6745916700838</v>
+        <v>76.67459167008366</v>
       </c>
       <c r="G46" t="n">
-        <v>59.83920861008979</v>
+        <v>59.83920861008971</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47686479039608</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="I46" t="n">
-        <v>62.00928958533407</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="J46" t="n">
-        <v>62.00928958533407</v>
+        <v>54.47686479039606</v>
       </c>
       <c r="K46" t="n">
-        <v>123.4057031838598</v>
+        <v>115.8732783889217</v>
       </c>
       <c r="L46" t="n">
-        <v>259.5772631486256</v>
+        <v>252.0448383536875</v>
       </c>
       <c r="M46" t="n">
-        <v>415.0685275233707</v>
+        <v>407.5361027284325</v>
       </c>
       <c r="N46" t="n">
-        <v>570.097014640608</v>
+        <v>562.5645898456698</v>
       </c>
       <c r="O46" t="n">
-        <v>702.3723612596281</v>
+        <v>694.8399364646898</v>
       </c>
       <c r="P46" t="n">
-        <v>794.2725955949685</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="Q46" t="n">
-        <v>794.2725955949685</v>
+        <v>786.7401708000302</v>
       </c>
       <c r="R46" t="n">
-        <v>794.2725955949685</v>
+        <v>794.2725955949678</v>
       </c>
       <c r="S46" t="n">
-        <v>736.6566064541989</v>
+        <v>736.6566064541983</v>
       </c>
       <c r="T46" t="n">
-        <v>656.3607940706</v>
+        <v>656.3607940705995</v>
       </c>
       <c r="U46" t="n">
-        <v>521.0241628436034</v>
+        <v>521.0241628436029</v>
       </c>
       <c r="V46" t="n">
-        <v>412.1291537654535</v>
+        <v>412.1291537654529</v>
       </c>
       <c r="W46" t="n">
-        <v>277.81304764628</v>
+        <v>277.8130476462794</v>
       </c>
       <c r="X46" t="n">
-        <v>198.4008789050831</v>
+        <v>198.4008789050827</v>
       </c>
       <c r="Y46" t="n">
-        <v>128.2060154607876</v>
+        <v>128.2060154607872</v>
       </c>
     </row>
   </sheetData>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3807241452605</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>349.4072499305489</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
@@ -8705,7 +8705,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>227.9116586325277</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,22 +8766,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82560482651456</v>
       </c>
       <c r="K12" t="n">
-        <v>65.45581871154005</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>415.7065428267958</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>132.0547267227498</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.9555184066076</v>
+        <v>101.3807241452605</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>349.4072499305499</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.4529071845636</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.82560482651452</v>
+        <v>75.82560482651456</v>
       </c>
       <c r="K15" t="n">
-        <v>65.45581871154005</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>439.3344321081753</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>171.483175124417</v>
+        <v>76.94484025804937</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3807241452605</v>
       </c>
       <c r="K17" t="n">
-        <v>230.9623743521135</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>512.3858071287179</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82560482651456</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,7 +9249,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>225.4502945380017</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>142.0982035774569</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.94484025804931</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,10 +9407,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>393.9409315502826</v>
       </c>
       <c r="N20" t="n">
-        <v>378.1243397451787</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9477,19 +9477,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82560482651456</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>298.2817943560528</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>155.0860571936032</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>76.94484025804937</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.9555184066076</v>
+        <v>101.3807241452605</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>346.3565342109631</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.4529071845636</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9720,13 +9720,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>49.996188948255</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>155.0860571936033</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>237.1377045498285</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>75.82560482651451</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9960,10 +9960,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>421.6059283365541</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>155.086057193603</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.9448402580493</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>155.0860571936022</v>
+        <v>155.0860571936035</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>75.82560482651452</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>159.9941535779067</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>155.0860571936035</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.94484025804931</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236961</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82560482651456</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>65.45581871154012</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>155.0860571936018</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>171.4831751244162</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10832,7 +10832,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5510017355797</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578756</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10905,19 +10905,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>374.2171756912008</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>619.8212279864076</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>47.28584426694255</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>53.81784298219803</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236956</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11151,13 +11151,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>404.1457418564511</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>53.81784298219794</v>
+        <v>142.0982035774561</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>76.94484025804937</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578764</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82560482651456</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>65.45581871154012</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>155.0860571936018</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>171.4831751244162</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5247571630044</v>
+        <v>301.5247571630042</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.536074120686</v>
       </c>
       <c r="D11" t="n">
-        <v>136.1328247564556</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4313318230968</v>
+        <v>7.500309084097097</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.50336102841635</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>245.0311344031834</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0280899100858</v>
+        <v>301.0280899100857</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.14146803770149</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>79.3414628831018</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.96282728068019</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.91057713645964</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.37750146464595</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.91620873924612</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.58367534058678</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>18.42537654890036</v>
       </c>
       <c r="W13" t="n">
-        <v>190.2088106747495</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>136.5553927655054</v>
+        <v>299.2511849119409</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>278.2438059141506</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>300.4503722209674</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>128.9054029463498</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>242.75756215212</v>
       </c>
       <c r="W14" t="n">
         <v>268.0576616300769</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.7545176590223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>77.06789063203843</v>
+        <v>77.06789063203841</v>
       </c>
       <c r="D16" t="n">
-        <v>33.57254009184911</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13700242828911</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.64263648818273</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.31010308952324</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>167.2760321862635</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>33.38624991158069</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>31.83001151488863</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>31.83001151488728</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>864044.7577078134</v>
+        <v>864044.7577078135</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>868261.070528315</v>
+        <v>868261.0705283149</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>536113.642055113</v>
+      </c>
+      <c r="C2" t="n">
+        <v>536113.6420551131</v>
+      </c>
+      <c r="D2" t="n">
         <v>536113.6420551129</v>
       </c>
-      <c r="C2" t="n">
-        <v>536113.6420551129</v>
-      </c>
-      <c r="D2" t="n">
-        <v>536113.642055113</v>
-      </c>
       <c r="E2" t="n">
-        <v>467982.1051978073</v>
+        <v>467982.1051978075</v>
       </c>
       <c r="F2" t="n">
-        <v>470792.9804114755</v>
+        <v>470792.9804114754</v>
       </c>
       <c r="G2" t="n">
+        <v>537336.842345927</v>
+      </c>
+      <c r="H2" t="n">
+        <v>537336.8423459269</v>
+      </c>
+      <c r="I2" t="n">
+        <v>537336.8423459271</v>
+      </c>
+      <c r="J2" t="n">
         <v>537336.8423459273</v>
       </c>
-      <c r="H2" t="n">
-        <v>537336.8423459275</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>537336.8423459273</v>
       </c>
-      <c r="J2" t="n">
-        <v>537336.8423459275</v>
-      </c>
-      <c r="K2" t="n">
-        <v>537336.8423459275</v>
-      </c>
       <c r="L2" t="n">
+        <v>537336.8423459273</v>
+      </c>
+      <c r="M2" t="n">
+        <v>537336.8423459263</v>
+      </c>
+      <c r="N2" t="n">
+        <v>537336.8423459269</v>
+      </c>
+      <c r="O2" t="n">
         <v>537336.8423459274</v>
       </c>
-      <c r="M2" t="n">
-        <v>537336.8423459274</v>
-      </c>
-      <c r="N2" t="n">
-        <v>537336.842345927</v>
-      </c>
-      <c r="O2" t="n">
-        <v>537336.842345927</v>
-      </c>
       <c r="P2" t="n">
-        <v>535563.2741043175</v>
+        <v>535563.2741043167</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>367474.8664902357</v>
       </c>
       <c r="F3" t="n">
-        <v>1818.85780085081</v>
+        <v>1818.857800850708</v>
       </c>
       <c r="G3" t="n">
-        <v>60059.81758378346</v>
+        <v>60059.81758378344</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83212.50248719499</v>
+        <v>83212.5024871951</v>
       </c>
       <c r="K3" t="n">
-        <v>1818.857800850827</v>
+        <v>1818.857800850719</v>
       </c>
       <c r="L3" t="n">
-        <v>60059.81758378352</v>
+        <v>60059.81758378348</v>
       </c>
       <c r="M3" t="n">
         <v>149683.0055396585</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20122.35170348556</v>
+        <v>20122.35170348573</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>401607.4064143078</v>
       </c>
       <c r="E4" t="n">
-        <v>254606.5687962659</v>
+        <v>254606.568796266</v>
       </c>
       <c r="F4" t="n">
-        <v>256904.1175122277</v>
+        <v>256904.1175122278</v>
       </c>
       <c r="G4" t="n">
-        <v>310957.0659697009</v>
+        <v>310957.065969701</v>
       </c>
       <c r="H4" t="n">
-        <v>310957.0659697009</v>
+        <v>310957.065969701</v>
       </c>
       <c r="I4" t="n">
         <v>310957.0659697009</v>
       </c>
       <c r="J4" t="n">
-        <v>309201.3144260169</v>
+        <v>309201.314426017</v>
       </c>
       <c r="K4" t="n">
-        <v>309201.3144260169</v>
+        <v>309201.314426017</v>
       </c>
       <c r="L4" t="n">
-        <v>309201.3144260169</v>
+        <v>309201.314426017</v>
       </c>
       <c r="M4" t="n">
         <v>308184.5411128144</v>
@@ -26457,7 +26457,7 @@
         <v>308184.5411128144</v>
       </c>
       <c r="P4" t="n">
-        <v>306740.7542884766</v>
+        <v>306740.7542884767</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48846.17053721815</v>
+        <v>48846.17053721816</v>
       </c>
       <c r="F5" t="n">
         <v>49037.30748279281</v>
@@ -26491,10 +26491,10 @@
         <v>55348.76848835668</v>
       </c>
       <c r="J5" t="n">
-        <v>64677.34636504858</v>
+        <v>64677.34636504857</v>
       </c>
       <c r="K5" t="n">
-        <v>64677.34636504858</v>
+        <v>64677.34636504857</v>
       </c>
       <c r="L5" t="n">
         <v>64677.34636504858</v>
@@ -26503,10 +26503,10 @@
         <v>57152.04643138002</v>
       </c>
       <c r="N5" t="n">
-        <v>57152.04643138003</v>
+        <v>57152.04643138</v>
       </c>
       <c r="O5" t="n">
-        <v>57152.04643138003</v>
+        <v>57152.04643138</v>
       </c>
       <c r="P5" t="n">
         <v>56960.90948580536</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100878.6356408051</v>
+        <v>100874.267068338</v>
       </c>
       <c r="C6" t="n">
-        <v>100878.6356408052</v>
+        <v>100874.2670683382</v>
       </c>
       <c r="D6" t="n">
-        <v>100878.6356408052</v>
+        <v>100874.2670683379</v>
       </c>
       <c r="E6" t="n">
-        <v>-202945.5006259124</v>
+        <v>-203193.1961157271</v>
       </c>
       <c r="F6" t="n">
-        <v>163032.6976156042</v>
+        <v>162795.0409658382</v>
       </c>
       <c r="G6" t="n">
-        <v>110971.1903040862</v>
+        <v>110971.190304086</v>
       </c>
       <c r="H6" t="n">
-        <v>171031.0078878699</v>
+        <v>171031.0078878692</v>
       </c>
       <c r="I6" t="n">
-        <v>171031.0078878697</v>
+        <v>171031.0078878695</v>
       </c>
       <c r="J6" t="n">
-        <v>80245.67906766708</v>
+        <v>80245.67906766661</v>
       </c>
       <c r="K6" t="n">
-        <v>161639.3237540111</v>
+        <v>161639.3237540109</v>
       </c>
       <c r="L6" t="n">
-        <v>103398.3639710783</v>
+        <v>103398.3639710782</v>
       </c>
       <c r="M6" t="n">
-        <v>22317.24926207437</v>
+        <v>22317.24926207332</v>
       </c>
       <c r="N6" t="n">
-        <v>172000.2548017324</v>
+        <v>172000.2548017325</v>
       </c>
       <c r="O6" t="n">
-        <v>151877.903098247</v>
+        <v>151877.9030982472</v>
       </c>
       <c r="P6" t="n">
-        <v>171861.6103300356</v>
+        <v>171855.2761577432</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="F2" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="G2" t="n">
         <v>165.9266911906274</v>
@@ -26716,7 +26716,7 @@
         <v>102.5012838601499</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="N2" t="n">
         <v>152.5954646608567</v>
@@ -26725,7 +26725,7 @@
         <v>152.5954646608566</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="F3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="G3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="H3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="I3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="J3" t="n">
-        <v>133.9945445919935</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="K3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="L3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="M3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="N3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="O3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
     </row>
     <row r="4">
@@ -26811,7 +26811,7 @@
         <v>632.8683620813548</v>
       </c>
       <c r="J4" t="n">
-        <v>873.9981062517137</v>
+        <v>873.9981062517136</v>
       </c>
       <c r="K4" t="n">
         <v>873.9981062517136</v>
@@ -26820,16 +26820,16 @@
         <v>873.9981062517136</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9608098799509</v>
+        <v>680.9608098799507</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9608098799509</v>
+        <v>680.9608098799506</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9608098799509</v>
+        <v>680.9608098799506</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9608098799509</v>
+        <v>680.9608098799507</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="F2" t="n">
-        <v>2.273572251063513</v>
+        <v>2.273572251063385</v>
       </c>
       <c r="G2" t="n">
-        <v>75.07477197972932</v>
+        <v>75.07477197972931</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.15293962935701</v>
+        <v>25.15293962935719</v>
       </c>
       <c r="K2" t="n">
-        <v>2.273572251063534</v>
+        <v>2.273572251063399</v>
       </c>
       <c r="L2" t="n">
-        <v>75.07477197972939</v>
+        <v>75.07477197972935</v>
       </c>
       <c r="M2" t="n">
-        <v>50.09418080070665</v>
+        <v>50.09418080070674</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.15293962935695</v>
+        <v>25.15293962935716</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.9945445919934</v>
+        <v>133.9945445919932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1297441703589</v>
+        <v>241.1297441703588</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8310657095922</v>
+        <v>439.8310657095919</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="K2" t="n">
-        <v>2.273572251063513</v>
+        <v>2.273572251063385</v>
       </c>
       <c r="L2" t="n">
-        <v>75.07477197972932</v>
+        <v>75.07477197972931</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.15293962935701</v>
+        <v>25.15293962935719</v>
       </c>
       <c r="P2" t="n">
-        <v>2.273572251063534</v>
+        <v>2.273572251063399</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="C11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="D11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="E11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="F11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="G11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="H11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="I11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.89457776281651</v>
+        <v>55.89457776281657</v>
       </c>
       <c r="S11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="T11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="U11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="V11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="W11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="X11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
     </row>
     <row r="12">
@@ -28181,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="C13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="D13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="E13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="F13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="G13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="H13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="I13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="J13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="K13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="L13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="M13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="N13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="O13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="P13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="R13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="S13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="T13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="U13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="V13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="W13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="X13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.57834695983453</v>
+        <v>88.5783469598347</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="C14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="D14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="E14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="F14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="G14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="H14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="I14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.89457776281651</v>
+        <v>55.89457776281657</v>
       </c>
       <c r="S14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="T14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="U14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="V14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="W14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="X14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="Y14" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-2.592694756885534e-13</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="C16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="D16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="E16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="F16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="G16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="H16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="I16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="J16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="K16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="L16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="M16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="N16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="O16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="P16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="R16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="S16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="T16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="U16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="V16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="W16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="X16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.85191921089807</v>
+        <v>90.85191921089809</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.89457776281651</v>
+        <v>55.89457776281657</v>
       </c>
       <c r="S17" t="n">
         <v>165.9266911906274</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>135.4945556990808</v>
       </c>
       <c r="J19" t="n">
-        <v>42.37346008042912</v>
+        <v>42.37346008042915</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.91879169945685</v>
+        <v>17.91879169945688</v>
       </c>
       <c r="R19" t="n">
         <v>137.1620223004213</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9266911906274</v>
+        <v>10.00681401586638</v>
       </c>
       <c r="T19" t="n">
         <v>165.9266911906274</v>
@@ -28779,7 +28779,7 @@
         <v>165.9266911906274</v>
       </c>
       <c r="V19" t="n">
-        <v>10.00681401586621</v>
+        <v>165.9266911906274</v>
       </c>
       <c r="W19" t="n">
         <v>165.9266911906274</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.89457776281651</v>
+        <v>55.89457776281657</v>
       </c>
       <c r="S20" t="n">
         <v>165.9266911906274</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>135.4945556990808</v>
       </c>
       <c r="J22" t="n">
-        <v>42.37346008042912</v>
+        <v>42.37346008042915</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91879169945685</v>
+        <v>17.91879169945688</v>
       </c>
       <c r="R22" t="n">
         <v>137.1620223004213</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9266911906274</v>
+        <v>10.00681401586638</v>
       </c>
       <c r="T22" t="n">
         <v>165.9266911906274</v>
@@ -29022,7 +29022,7 @@
         <v>165.9266911906274</v>
       </c>
       <c r="X22" t="n">
-        <v>10.00681401586621</v>
+        <v>165.9266911906274</v>
       </c>
       <c r="Y22" t="n">
         <v>165.9266911906274</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.89457776281651</v>
+        <v>55.89457776281657</v>
       </c>
       <c r="S23" t="n">
         <v>165.9266911906274</v>
@@ -29202,13 +29202,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>160.4957381121606</v>
+        <v>165.9266911906274</v>
       </c>
       <c r="H25" t="n">
         <v>155.6306127912899</v>
@@ -29217,7 +29217,7 @@
         <v>135.4945556990808</v>
       </c>
       <c r="J25" t="n">
-        <v>42.37346008042912</v>
+        <v>42.37346008042915</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91879169945685</v>
+        <v>17.91879169945688</v>
       </c>
       <c r="R25" t="n">
         <v>137.1620223004213</v>
@@ -29253,7 +29253,7 @@
         <v>165.9266911906274</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9266911906274</v>
+        <v>10.00681401586644</v>
       </c>
       <c r="W25" t="n">
         <v>165.9266911906274</v>
@@ -29302,7 +29302,7 @@
         <v>102.5012838601499</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2340056465770886</v>
+        <v>102.5012838601499</v>
       </c>
       <c r="M26" t="n">
         <v>102.5012838601499</v>
@@ -29314,7 +29314,7 @@
         <v>102.5012838601499</v>
       </c>
       <c r="P26" t="n">
-        <v>102.5012838601499</v>
+        <v>0.2340056465772591</v>
       </c>
       <c r="Q26" t="n">
         <v>102.5012838601499</v>
@@ -29533,7 +29533,7 @@
         <v>102.5012838601499</v>
       </c>
       <c r="J29" t="n">
-        <v>102.5012838601499</v>
+        <v>0.2340056465770601</v>
       </c>
       <c r="K29" t="n">
         <v>102.5012838601499</v>
@@ -29542,7 +29542,7 @@
         <v>102.5012838601499</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2340056465768612</v>
+        <v>102.5012838601499</v>
       </c>
       <c r="N29" t="n">
         <v>102.5012838601499</v>
@@ -29770,10 +29770,10 @@
         <v>102.5012838601499</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2340056465760654</v>
+        <v>102.5012838601499</v>
       </c>
       <c r="K32" t="n">
-        <v>102.5012838601499</v>
+        <v>0.2340056465770317</v>
       </c>
       <c r="L32" t="n">
         <v>102.5012838601499</v>
@@ -29928,7 +29928,7 @@
         <v>102.5012838601499</v>
       </c>
       <c r="J34" t="n">
-        <v>102.5012838601487</v>
+        <v>102.5012838601489</v>
       </c>
       <c r="K34" t="n">
         <v>102.5012838601499</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="I35" t="n">
         <v>150.3218924097932</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.89457776281651</v>
+        <v>55.89457776281656</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30153,19 +30153,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>131.3833846778601</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="I37" t="n">
         <v>135.4945556990808</v>
       </c>
       <c r="J37" t="n">
-        <v>42.37346008042912</v>
+        <v>42.37346008042915</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91879169945685</v>
+        <v>17.91879169945688</v>
       </c>
       <c r="R37" t="n">
         <v>137.1620223004213</v>
       </c>
       <c r="S37" t="n">
-        <v>133.0230009142369</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5954646608566</v>
+        <v>152.5954646608567</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.89457776281651</v>
+        <v>55.89457776281656</v>
       </c>
       <c r="S38" t="n">
         <v>152.5954646608567</v>
@@ -30402,7 +30402,7 @@
         <v>135.4945556990808</v>
       </c>
       <c r="J40" t="n">
-        <v>42.37346008042912</v>
+        <v>42.37346008042915</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91879169945685</v>
+        <v>17.91879169945688</v>
       </c>
       <c r="R40" t="n">
         <v>137.1620223004213</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.89457776281651</v>
+        <v>55.89457776281656</v>
       </c>
       <c r="S41" t="n">
         <v>152.5954646608566</v>
@@ -30639,7 +30639,7 @@
         <v>135.4945556990808</v>
       </c>
       <c r="J43" t="n">
-        <v>42.37346008042912</v>
+        <v>42.37346008042915</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91879169945685</v>
+        <v>17.91879169945688</v>
       </c>
       <c r="R43" t="n">
         <v>137.1620223004213</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5954646608566</v>
+        <v>133.0230009142364</v>
       </c>
       <c r="T43" t="n">
         <v>152.5954646608566</v>
@@ -30684,7 +30684,7 @@
         <v>152.5954646608566</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.0230009142366</v>
+        <v>152.5954646608566</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="C44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="D44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="E44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="F44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="G44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="H44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="I44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.8945777628165</v>
+        <v>55.89457776281656</v>
       </c>
       <c r="S44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="T44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="U44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="V44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="W44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="X44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="Y44" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="C46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="D46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="E46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="F46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="G46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="H46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="I46" t="n">
-        <v>143.1030655929576</v>
+        <v>135.4945556990808</v>
       </c>
       <c r="J46" t="n">
-        <v>42.37346008042911</v>
+        <v>42.37346008042915</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91879169945684</v>
+        <v>17.91879169945688</v>
       </c>
       <c r="R46" t="n">
-        <v>137.1620223004213</v>
+        <v>144.7705321942977</v>
       </c>
       <c r="S46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="T46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="U46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="V46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="W46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="X46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.3218924097931</v>
+        <v>150.3218924097932</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5386715360482144</v>
+        <v>0.5386715360482134</v>
       </c>
       <c r="H11" t="n">
-        <v>5.516669868553777</v>
+        <v>5.516669868553767</v>
       </c>
       <c r="I11" t="n">
-        <v>20.7671343934988</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J11" t="n">
-        <v>45.71907328267217</v>
+        <v>45.7190732826721</v>
       </c>
       <c r="K11" t="n">
-        <v>68.52103940359309</v>
+        <v>68.52103940359298</v>
       </c>
       <c r="L11" t="n">
-        <v>85.00640842492865</v>
+        <v>85.00640842492851</v>
       </c>
       <c r="M11" t="n">
-        <v>94.58600835412608</v>
+        <v>94.58600835412592</v>
       </c>
       <c r="N11" t="n">
-        <v>96.11650885592309</v>
+        <v>96.11650885592292</v>
       </c>
       <c r="O11" t="n">
-        <v>90.76009376934364</v>
+        <v>90.76009376934348</v>
       </c>
       <c r="P11" t="n">
-        <v>77.46164022315334</v>
+        <v>77.46164022315321</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.17046583842664</v>
+        <v>58.17046583842654</v>
       </c>
       <c r="R11" t="n">
-        <v>33.83732587628867</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S11" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T11" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04309372288385714</v>
+        <v>0.04309372288385706</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H12" t="n">
-        <v>2.783547048977071</v>
+        <v>2.783547048977066</v>
       </c>
       <c r="I12" t="n">
-        <v>9.923180896671212</v>
+        <v>9.923180896671195</v>
       </c>
       <c r="J12" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015213</v>
       </c>
       <c r="K12" t="n">
-        <v>46.54035045512662</v>
+        <v>46.54035045512654</v>
       </c>
       <c r="L12" t="n">
-        <v>62.57924462289278</v>
+        <v>62.57924462289267</v>
       </c>
       <c r="M12" t="n">
-        <v>73.0270268026364</v>
+        <v>73.02702680263629</v>
       </c>
       <c r="N12" t="n">
-        <v>74.95983490340205</v>
+        <v>74.95983490340193</v>
       </c>
       <c r="O12" t="n">
-        <v>68.57360434416856</v>
+        <v>68.57360434416844</v>
       </c>
       <c r="P12" t="n">
-        <v>55.03636304194538</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79035118684317</v>
+        <v>36.79035118684312</v>
       </c>
       <c r="R12" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041751</v>
       </c>
       <c r="S12" t="n">
-        <v>5.353461286293318</v>
+        <v>5.353461286293309</v>
       </c>
       <c r="T12" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I13" t="n">
-        <v>7.266458254267448</v>
+        <v>7.266458254267436</v>
       </c>
       <c r="J13" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07295540796189</v>
+        <v>28.07295540796184</v>
       </c>
       <c r="L13" t="n">
-        <v>35.92371774192558</v>
+        <v>35.92371774192552</v>
       </c>
       <c r="M13" t="n">
-        <v>37.87652348196298</v>
+        <v>37.87652348196292</v>
       </c>
       <c r="N13" t="n">
-        <v>36.97590441175453</v>
+        <v>36.97590441175447</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780837</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22399051232589</v>
+        <v>29.22399051232584</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R13" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S13" t="n">
-        <v>4.210943311194283</v>
+        <v>4.210943311194276</v>
       </c>
       <c r="T13" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921914</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5386715360482144</v>
+        <v>0.5386715360482134</v>
       </c>
       <c r="H14" t="n">
-        <v>5.516669868553777</v>
+        <v>5.516669868553767</v>
       </c>
       <c r="I14" t="n">
-        <v>20.7671343934988</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J14" t="n">
-        <v>45.71907328267217</v>
+        <v>45.7190732826721</v>
       </c>
       <c r="K14" t="n">
-        <v>68.52103940359309</v>
+        <v>68.52103940359298</v>
       </c>
       <c r="L14" t="n">
-        <v>85.00640842492865</v>
+        <v>85.00640842492851</v>
       </c>
       <c r="M14" t="n">
-        <v>94.58600835412608</v>
+        <v>94.58600835412592</v>
       </c>
       <c r="N14" t="n">
-        <v>96.11650885592309</v>
+        <v>96.11650885592292</v>
       </c>
       <c r="O14" t="n">
-        <v>90.76009376934364</v>
+        <v>90.76009376934348</v>
       </c>
       <c r="P14" t="n">
-        <v>77.46164022315334</v>
+        <v>77.46164022315321</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.17046583842664</v>
+        <v>58.17046583842654</v>
       </c>
       <c r="R14" t="n">
-        <v>33.83732587628867</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S14" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T14" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04309372288385714</v>
+        <v>0.04309372288385706</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H15" t="n">
-        <v>2.783547048977071</v>
+        <v>2.783547048977066</v>
       </c>
       <c r="I15" t="n">
-        <v>9.923180896671212</v>
+        <v>9.923180896671195</v>
       </c>
       <c r="J15" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015213</v>
       </c>
       <c r="K15" t="n">
-        <v>46.54035045512662</v>
+        <v>46.54035045512654</v>
       </c>
       <c r="L15" t="n">
-        <v>62.57924462289278</v>
+        <v>62.57924462289267</v>
       </c>
       <c r="M15" t="n">
-        <v>73.0270268026364</v>
+        <v>73.02702680263629</v>
       </c>
       <c r="N15" t="n">
-        <v>74.95983490340205</v>
+        <v>74.95983490340193</v>
       </c>
       <c r="O15" t="n">
-        <v>68.57360434416856</v>
+        <v>68.57360434416844</v>
       </c>
       <c r="P15" t="n">
-        <v>55.03636304194538</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79035118684317</v>
+        <v>36.79035118684312</v>
       </c>
       <c r="R15" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041751</v>
       </c>
       <c r="S15" t="n">
-        <v>5.353461286293318</v>
+        <v>5.353461286293309</v>
       </c>
       <c r="T15" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I16" t="n">
-        <v>7.266458254267448</v>
+        <v>7.266458254267436</v>
       </c>
       <c r="J16" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07295540796189</v>
+        <v>28.07295540796184</v>
       </c>
       <c r="L16" t="n">
-        <v>35.92371774192558</v>
+        <v>35.92371774192552</v>
       </c>
       <c r="M16" t="n">
-        <v>37.87652348196298</v>
+        <v>37.87652348196292</v>
       </c>
       <c r="N16" t="n">
-        <v>36.97590441175453</v>
+        <v>36.97590441175447</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780837</v>
       </c>
       <c r="P16" t="n">
-        <v>29.22399051232589</v>
+        <v>29.22399051232584</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R16" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S16" t="n">
-        <v>4.210943311194283</v>
+        <v>4.210943311194276</v>
       </c>
       <c r="T16" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921914</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5386715360482144</v>
+        <v>0.5386715360482134</v>
       </c>
       <c r="H17" t="n">
-        <v>5.516669868553777</v>
+        <v>5.516669868553767</v>
       </c>
       <c r="I17" t="n">
-        <v>20.7671343934988</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J17" t="n">
-        <v>45.71907328267217</v>
+        <v>45.7190732826721</v>
       </c>
       <c r="K17" t="n">
-        <v>68.52103940359309</v>
+        <v>68.52103940359298</v>
       </c>
       <c r="L17" t="n">
-        <v>85.00640842492865</v>
+        <v>85.00640842492851</v>
       </c>
       <c r="M17" t="n">
-        <v>94.58600835412608</v>
+        <v>94.58600835412592</v>
       </c>
       <c r="N17" t="n">
-        <v>96.11650885592309</v>
+        <v>96.11650885592292</v>
       </c>
       <c r="O17" t="n">
-        <v>90.76009376934364</v>
+        <v>90.76009376934348</v>
       </c>
       <c r="P17" t="n">
-        <v>77.46164022315334</v>
+        <v>77.46164022315321</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.17046583842664</v>
+        <v>58.17046583842654</v>
       </c>
       <c r="R17" t="n">
-        <v>33.83732587628867</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S17" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T17" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04309372288385714</v>
+        <v>0.04309372288385706</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H18" t="n">
-        <v>2.783547048977071</v>
+        <v>2.783547048977066</v>
       </c>
       <c r="I18" t="n">
-        <v>9.923180896671212</v>
+        <v>9.923180896671195</v>
       </c>
       <c r="J18" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015213</v>
       </c>
       <c r="K18" t="n">
-        <v>46.54035045512662</v>
+        <v>46.54035045512654</v>
       </c>
       <c r="L18" t="n">
-        <v>62.57924462289278</v>
+        <v>62.57924462289267</v>
       </c>
       <c r="M18" t="n">
-        <v>73.0270268026364</v>
+        <v>73.02702680263629</v>
       </c>
       <c r="N18" t="n">
-        <v>74.95983490340205</v>
+        <v>74.95983490340193</v>
       </c>
       <c r="O18" t="n">
-        <v>68.57360434416856</v>
+        <v>68.57360434416844</v>
       </c>
       <c r="P18" t="n">
-        <v>55.03636304194538</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79035118684317</v>
+        <v>36.79035118684312</v>
       </c>
       <c r="R18" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041751</v>
       </c>
       <c r="S18" t="n">
-        <v>5.353461286293318</v>
+        <v>5.353461286293309</v>
       </c>
       <c r="T18" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I19" t="n">
-        <v>7.266458254267448</v>
+        <v>7.266458254267436</v>
       </c>
       <c r="J19" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07295540796189</v>
+        <v>28.07295540796184</v>
       </c>
       <c r="L19" t="n">
-        <v>35.92371774192558</v>
+        <v>35.92371774192552</v>
       </c>
       <c r="M19" t="n">
-        <v>37.87652348196298</v>
+        <v>37.87652348196292</v>
       </c>
       <c r="N19" t="n">
-        <v>36.97590441175453</v>
+        <v>36.97590441175447</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780837</v>
       </c>
       <c r="P19" t="n">
-        <v>29.22399051232589</v>
+        <v>29.22399051232584</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R19" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S19" t="n">
-        <v>4.210943311194283</v>
+        <v>4.210943311194276</v>
       </c>
       <c r="T19" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921914</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5386715360482144</v>
+        <v>0.5386715360482134</v>
       </c>
       <c r="H20" t="n">
-        <v>5.516669868553777</v>
+        <v>5.516669868553767</v>
       </c>
       <c r="I20" t="n">
-        <v>20.7671343934988</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J20" t="n">
-        <v>45.71907328267217</v>
+        <v>45.7190732826721</v>
       </c>
       <c r="K20" t="n">
-        <v>68.52103940359309</v>
+        <v>68.52103940359298</v>
       </c>
       <c r="L20" t="n">
-        <v>85.00640842492865</v>
+        <v>85.00640842492851</v>
       </c>
       <c r="M20" t="n">
-        <v>94.58600835412608</v>
+        <v>94.58600835412592</v>
       </c>
       <c r="N20" t="n">
-        <v>96.11650885592309</v>
+        <v>96.11650885592292</v>
       </c>
       <c r="O20" t="n">
-        <v>90.76009376934364</v>
+        <v>90.76009376934348</v>
       </c>
       <c r="P20" t="n">
-        <v>77.46164022315334</v>
+        <v>77.46164022315321</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.17046583842664</v>
+        <v>58.17046583842654</v>
       </c>
       <c r="R20" t="n">
-        <v>33.83732587628867</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S20" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T20" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04309372288385714</v>
+        <v>0.04309372288385706</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H21" t="n">
-        <v>2.783547048977071</v>
+        <v>2.783547048977066</v>
       </c>
       <c r="I21" t="n">
-        <v>9.923180896671212</v>
+        <v>9.923180896671195</v>
       </c>
       <c r="J21" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015213</v>
       </c>
       <c r="K21" t="n">
-        <v>46.54035045512662</v>
+        <v>46.54035045512654</v>
       </c>
       <c r="L21" t="n">
-        <v>62.57924462289278</v>
+        <v>62.57924462289267</v>
       </c>
       <c r="M21" t="n">
-        <v>73.0270268026364</v>
+        <v>73.02702680263629</v>
       </c>
       <c r="N21" t="n">
-        <v>74.95983490340205</v>
+        <v>74.95983490340193</v>
       </c>
       <c r="O21" t="n">
-        <v>68.57360434416856</v>
+        <v>68.57360434416844</v>
       </c>
       <c r="P21" t="n">
-        <v>55.03636304194538</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79035118684317</v>
+        <v>36.79035118684312</v>
       </c>
       <c r="R21" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041751</v>
       </c>
       <c r="S21" t="n">
-        <v>5.353461286293318</v>
+        <v>5.353461286293309</v>
       </c>
       <c r="T21" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I22" t="n">
-        <v>7.266458254267448</v>
+        <v>7.266458254267436</v>
       </c>
       <c r="J22" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07295540796189</v>
+        <v>28.07295540796184</v>
       </c>
       <c r="L22" t="n">
-        <v>35.92371774192558</v>
+        <v>35.92371774192552</v>
       </c>
       <c r="M22" t="n">
-        <v>37.87652348196298</v>
+        <v>37.87652348196292</v>
       </c>
       <c r="N22" t="n">
-        <v>36.97590441175453</v>
+        <v>36.97590441175447</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780837</v>
       </c>
       <c r="P22" t="n">
-        <v>29.22399051232589</v>
+        <v>29.22399051232584</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R22" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S22" t="n">
-        <v>4.210943311194283</v>
+        <v>4.210943311194276</v>
       </c>
       <c r="T22" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921914</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5386715360482144</v>
+        <v>0.5386715360482134</v>
       </c>
       <c r="H23" t="n">
-        <v>5.516669868553777</v>
+        <v>5.516669868553767</v>
       </c>
       <c r="I23" t="n">
-        <v>20.7671343934988</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J23" t="n">
-        <v>45.71907328267217</v>
+        <v>45.7190732826721</v>
       </c>
       <c r="K23" t="n">
-        <v>68.52103940359309</v>
+        <v>68.52103940359298</v>
       </c>
       <c r="L23" t="n">
-        <v>85.00640842492865</v>
+        <v>85.00640842492851</v>
       </c>
       <c r="M23" t="n">
-        <v>94.58600835412608</v>
+        <v>94.58600835412592</v>
       </c>
       <c r="N23" t="n">
-        <v>96.11650885592309</v>
+        <v>96.11650885592292</v>
       </c>
       <c r="O23" t="n">
-        <v>90.76009376934364</v>
+        <v>90.76009376934348</v>
       </c>
       <c r="P23" t="n">
-        <v>77.46164022315334</v>
+        <v>77.46164022315321</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.17046583842664</v>
+        <v>58.17046583842654</v>
       </c>
       <c r="R23" t="n">
-        <v>33.83732587628867</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S23" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T23" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04309372288385714</v>
+        <v>0.04309372288385706</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H24" t="n">
-        <v>2.783547048977071</v>
+        <v>2.783547048977066</v>
       </c>
       <c r="I24" t="n">
-        <v>9.923180896671212</v>
+        <v>9.923180896671195</v>
       </c>
       <c r="J24" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015213</v>
       </c>
       <c r="K24" t="n">
-        <v>46.54035045512662</v>
+        <v>46.54035045512654</v>
       </c>
       <c r="L24" t="n">
-        <v>62.57924462289278</v>
+        <v>62.57924462289267</v>
       </c>
       <c r="M24" t="n">
-        <v>73.0270268026364</v>
+        <v>73.02702680263629</v>
       </c>
       <c r="N24" t="n">
-        <v>74.95983490340205</v>
+        <v>74.95983490340193</v>
       </c>
       <c r="O24" t="n">
-        <v>68.57360434416856</v>
+        <v>68.57360434416844</v>
       </c>
       <c r="P24" t="n">
-        <v>55.03636304194538</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79035118684317</v>
+        <v>36.79035118684312</v>
       </c>
       <c r="R24" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041751</v>
       </c>
       <c r="S24" t="n">
-        <v>5.353461286293318</v>
+        <v>5.353461286293309</v>
       </c>
       <c r="T24" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I25" t="n">
-        <v>7.266458254267448</v>
+        <v>7.266458254267436</v>
       </c>
       <c r="J25" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07295540796189</v>
+        <v>28.07295540796184</v>
       </c>
       <c r="L25" t="n">
-        <v>35.92371774192558</v>
+        <v>35.92371774192552</v>
       </c>
       <c r="M25" t="n">
-        <v>37.87652348196298</v>
+        <v>37.87652348196292</v>
       </c>
       <c r="N25" t="n">
-        <v>36.97590441175453</v>
+        <v>36.97590441175447</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780837</v>
       </c>
       <c r="P25" t="n">
-        <v>29.22399051232589</v>
+        <v>29.22399051232584</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R25" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S25" t="n">
-        <v>4.210943311194283</v>
+        <v>4.210943311194276</v>
       </c>
       <c r="T25" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921914</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5386715360482146</v>
+        <v>0.5386715360482136</v>
       </c>
       <c r="H26" t="n">
-        <v>5.516669868553778</v>
+        <v>5.51666986855377</v>
       </c>
       <c r="I26" t="n">
-        <v>20.76713439349881</v>
+        <v>20.76713439349878</v>
       </c>
       <c r="J26" t="n">
-        <v>45.71907328267219</v>
+        <v>45.71907328267211</v>
       </c>
       <c r="K26" t="n">
-        <v>68.52103940359312</v>
+        <v>68.52103940359301</v>
       </c>
       <c r="L26" t="n">
-        <v>85.00640842492869</v>
+        <v>85.00640842492855</v>
       </c>
       <c r="M26" t="n">
-        <v>94.58600835412612</v>
+        <v>94.58600835412597</v>
       </c>
       <c r="N26" t="n">
-        <v>96.11650885592313</v>
+        <v>96.11650885592296</v>
       </c>
       <c r="O26" t="n">
-        <v>90.76009376934368</v>
+        <v>90.76009376934353</v>
       </c>
       <c r="P26" t="n">
-        <v>77.46164022315337</v>
+        <v>77.46164022315324</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.17046583842667</v>
+        <v>58.17046583842657</v>
       </c>
       <c r="R26" t="n">
-        <v>33.83732587628869</v>
+        <v>33.83732587628863</v>
       </c>
       <c r="S26" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T26" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04309372288385716</v>
+        <v>0.04309372288385709</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882146808205143</v>
+        <v>0.2882146808205138</v>
       </c>
       <c r="H27" t="n">
-        <v>2.783547048977073</v>
+        <v>2.783547048977068</v>
       </c>
       <c r="I27" t="n">
-        <v>9.923180896671216</v>
+        <v>9.9231808966712</v>
       </c>
       <c r="J27" t="n">
-        <v>27.22996684015219</v>
+        <v>27.22996684015214</v>
       </c>
       <c r="K27" t="n">
-        <v>46.54035045512664</v>
+        <v>46.54035045512656</v>
       </c>
       <c r="L27" t="n">
-        <v>62.57924462289281</v>
+        <v>62.5792446228927</v>
       </c>
       <c r="M27" t="n">
-        <v>73.02702680263643</v>
+        <v>73.02702680263631</v>
       </c>
       <c r="N27" t="n">
-        <v>74.95983490340208</v>
+        <v>74.95983490340197</v>
       </c>
       <c r="O27" t="n">
-        <v>68.57360434416859</v>
+        <v>68.57360434416847</v>
       </c>
       <c r="P27" t="n">
-        <v>55.0363630419454</v>
+        <v>55.03636304194531</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.7903511868432</v>
+        <v>36.79035118684313</v>
       </c>
       <c r="R27" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041752</v>
       </c>
       <c r="S27" t="n">
-        <v>5.353461286293321</v>
+        <v>5.353461286293312</v>
       </c>
       <c r="T27" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896149215924437</v>
+        <v>0.01896149215924434</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416295066412997</v>
+        <v>0.2416295066412993</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148305977229012</v>
+        <v>2.148305977229008</v>
       </c>
       <c r="I28" t="n">
-        <v>7.266458254267451</v>
+        <v>7.266458254267438</v>
       </c>
       <c r="J28" t="n">
-        <v>17.08320611953989</v>
+        <v>17.08320611953986</v>
       </c>
       <c r="K28" t="n">
-        <v>28.0729554079619</v>
+        <v>28.07295540796185</v>
       </c>
       <c r="L28" t="n">
-        <v>35.9237177419256</v>
+        <v>35.92371774192554</v>
       </c>
       <c r="M28" t="n">
-        <v>37.876523481963</v>
+        <v>37.87652348196293</v>
       </c>
       <c r="N28" t="n">
-        <v>36.97590441175455</v>
+        <v>36.97590441175448</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15323244780844</v>
+        <v>34.15323244780839</v>
       </c>
       <c r="P28" t="n">
-        <v>29.2239905123259</v>
+        <v>29.22399051232586</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339098</v>
       </c>
       <c r="R28" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134424</v>
       </c>
       <c r="S28" t="n">
-        <v>4.210943311194285</v>
+        <v>4.210943311194278</v>
       </c>
       <c r="T28" t="n">
-        <v>1.032416982921917</v>
+        <v>1.032416982921915</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5386715360482144</v>
+        <v>0.5386715360482135</v>
       </c>
       <c r="H29" t="n">
-        <v>5.516669868553777</v>
+        <v>5.516669868553768</v>
       </c>
       <c r="I29" t="n">
-        <v>20.7671343934988</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J29" t="n">
-        <v>45.71907328267217</v>
+        <v>45.71907328267211</v>
       </c>
       <c r="K29" t="n">
-        <v>68.52103940359309</v>
+        <v>68.52103940359299</v>
       </c>
       <c r="L29" t="n">
-        <v>85.00640842492865</v>
+        <v>85.00640842492854</v>
       </c>
       <c r="M29" t="n">
-        <v>94.58600835412608</v>
+        <v>94.58600835412594</v>
       </c>
       <c r="N29" t="n">
-        <v>96.11650885592309</v>
+        <v>96.11650885592294</v>
       </c>
       <c r="O29" t="n">
-        <v>90.76009376934364</v>
+        <v>90.76009376934351</v>
       </c>
       <c r="P29" t="n">
-        <v>77.46164022315334</v>
+        <v>77.46164022315322</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.17046583842664</v>
+        <v>58.17046583842656</v>
       </c>
       <c r="R29" t="n">
-        <v>33.83732587628867</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S29" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T29" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04309372288385714</v>
+        <v>0.04309372288385707</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H30" t="n">
-        <v>2.783547048977071</v>
+        <v>2.783547048977067</v>
       </c>
       <c r="I30" t="n">
-        <v>9.923180896671212</v>
+        <v>9.923180896671198</v>
       </c>
       <c r="J30" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015214</v>
       </c>
       <c r="K30" t="n">
-        <v>46.54035045512662</v>
+        <v>46.54035045512656</v>
       </c>
       <c r="L30" t="n">
-        <v>62.57924462289278</v>
+        <v>62.57924462289269</v>
       </c>
       <c r="M30" t="n">
-        <v>73.0270268026364</v>
+        <v>73.0270268026363</v>
       </c>
       <c r="N30" t="n">
-        <v>74.95983490340205</v>
+        <v>74.95983490340194</v>
       </c>
       <c r="O30" t="n">
-        <v>68.57360434416856</v>
+        <v>68.57360434416846</v>
       </c>
       <c r="P30" t="n">
-        <v>55.03636304194538</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79035118684317</v>
+        <v>36.79035118684313</v>
       </c>
       <c r="R30" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041752</v>
       </c>
       <c r="S30" t="n">
-        <v>5.353461286293318</v>
+        <v>5.35346128629331</v>
       </c>
       <c r="T30" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H31" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I31" t="n">
-        <v>7.266458254267448</v>
+        <v>7.266458254267437</v>
       </c>
       <c r="J31" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07295540796189</v>
+        <v>28.07295540796185</v>
       </c>
       <c r="L31" t="n">
-        <v>35.92371774192558</v>
+        <v>35.92371774192553</v>
       </c>
       <c r="M31" t="n">
-        <v>37.87652348196298</v>
+        <v>37.87652348196293</v>
       </c>
       <c r="N31" t="n">
-        <v>36.97590441175453</v>
+        <v>36.97590441175448</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780838</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22399051232589</v>
+        <v>29.22399051232585</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S31" t="n">
-        <v>4.210943311194283</v>
+        <v>4.210943311194277</v>
       </c>
       <c r="T31" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921915</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5386715360482144</v>
+        <v>0.5386715360482135</v>
       </c>
       <c r="H32" t="n">
-        <v>5.516669868553777</v>
+        <v>5.516669868553768</v>
       </c>
       <c r="I32" t="n">
-        <v>20.7671343934988</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J32" t="n">
-        <v>45.71907328267217</v>
+        <v>45.71907328267211</v>
       </c>
       <c r="K32" t="n">
-        <v>68.52103940359309</v>
+        <v>68.52103940359299</v>
       </c>
       <c r="L32" t="n">
-        <v>85.00640842492865</v>
+        <v>85.00640842492854</v>
       </c>
       <c r="M32" t="n">
-        <v>94.58600835412608</v>
+        <v>94.58600835412594</v>
       </c>
       <c r="N32" t="n">
-        <v>96.11650885592309</v>
+        <v>96.11650885592294</v>
       </c>
       <c r="O32" t="n">
-        <v>90.76009376934364</v>
+        <v>90.76009376934351</v>
       </c>
       <c r="P32" t="n">
-        <v>77.46164022315334</v>
+        <v>77.46164022315322</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.17046583842664</v>
+        <v>58.17046583842656</v>
       </c>
       <c r="R32" t="n">
-        <v>33.83732587628867</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S32" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T32" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04309372288385714</v>
+        <v>0.04309372288385707</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H33" t="n">
-        <v>2.783547048977071</v>
+        <v>2.783547048977067</v>
       </c>
       <c r="I33" t="n">
-        <v>9.923180896671212</v>
+        <v>9.923180896671198</v>
       </c>
       <c r="J33" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015214</v>
       </c>
       <c r="K33" t="n">
-        <v>46.54035045512662</v>
+        <v>46.54035045512656</v>
       </c>
       <c r="L33" t="n">
-        <v>62.57924462289278</v>
+        <v>62.57924462289269</v>
       </c>
       <c r="M33" t="n">
-        <v>73.0270268026364</v>
+        <v>73.0270268026363</v>
       </c>
       <c r="N33" t="n">
-        <v>74.95983490340205</v>
+        <v>74.95983490340194</v>
       </c>
       <c r="O33" t="n">
-        <v>68.57360434416856</v>
+        <v>68.57360434416846</v>
       </c>
       <c r="P33" t="n">
-        <v>55.03636304194538</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79035118684317</v>
+        <v>36.79035118684313</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041752</v>
       </c>
       <c r="S33" t="n">
-        <v>5.353461286293318</v>
+        <v>5.35346128629331</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I34" t="n">
-        <v>7.266458254267448</v>
+        <v>7.266458254267437</v>
       </c>
       <c r="J34" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07295540796189</v>
+        <v>28.07295540796185</v>
       </c>
       <c r="L34" t="n">
-        <v>35.92371774192558</v>
+        <v>35.92371774192553</v>
       </c>
       <c r="M34" t="n">
-        <v>37.87652348196298</v>
+        <v>37.87652348196293</v>
       </c>
       <c r="N34" t="n">
-        <v>36.97590441175453</v>
+        <v>36.97590441175448</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780838</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22399051232589</v>
+        <v>29.22399051232585</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R34" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S34" t="n">
-        <v>4.210943311194283</v>
+        <v>4.210943311194277</v>
       </c>
       <c r="T34" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921915</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5386715360482144</v>
+        <v>0.5386715360482135</v>
       </c>
       <c r="H35" t="n">
-        <v>5.516669868553777</v>
+        <v>5.516669868553768</v>
       </c>
       <c r="I35" t="n">
-        <v>20.7671343934988</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J35" t="n">
-        <v>45.71907328267217</v>
+        <v>45.71907328267211</v>
       </c>
       <c r="K35" t="n">
-        <v>68.52103940359309</v>
+        <v>68.52103940359299</v>
       </c>
       <c r="L35" t="n">
-        <v>85.00640842492865</v>
+        <v>85.00640842492854</v>
       </c>
       <c r="M35" t="n">
-        <v>94.58600835412608</v>
+        <v>94.58600835412594</v>
       </c>
       <c r="N35" t="n">
-        <v>96.11650885592309</v>
+        <v>96.11650885592294</v>
       </c>
       <c r="O35" t="n">
-        <v>90.76009376934364</v>
+        <v>90.76009376934351</v>
       </c>
       <c r="P35" t="n">
-        <v>77.46164022315334</v>
+        <v>77.46164022315322</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.17046583842664</v>
+        <v>58.17046583842656</v>
       </c>
       <c r="R35" t="n">
-        <v>33.83732587628867</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S35" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T35" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04309372288385714</v>
+        <v>0.04309372288385707</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H36" t="n">
-        <v>2.783547048977071</v>
+        <v>2.783547048977067</v>
       </c>
       <c r="I36" t="n">
-        <v>9.923180896671212</v>
+        <v>9.923180896671198</v>
       </c>
       <c r="J36" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015214</v>
       </c>
       <c r="K36" t="n">
-        <v>46.54035045512662</v>
+        <v>46.54035045512656</v>
       </c>
       <c r="L36" t="n">
-        <v>62.57924462289278</v>
+        <v>62.57924462289269</v>
       </c>
       <c r="M36" t="n">
-        <v>73.0270268026364</v>
+        <v>73.0270268026363</v>
       </c>
       <c r="N36" t="n">
-        <v>74.95983490340205</v>
+        <v>74.95983490340194</v>
       </c>
       <c r="O36" t="n">
-        <v>68.57360434416856</v>
+        <v>68.57360434416846</v>
       </c>
       <c r="P36" t="n">
-        <v>55.03636304194538</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79035118684317</v>
+        <v>36.79035118684313</v>
       </c>
       <c r="R36" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041752</v>
       </c>
       <c r="S36" t="n">
-        <v>5.353461286293318</v>
+        <v>5.35346128629331</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I37" t="n">
-        <v>7.266458254267448</v>
+        <v>7.266458254267437</v>
       </c>
       <c r="J37" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07295540796189</v>
+        <v>28.07295540796185</v>
       </c>
       <c r="L37" t="n">
-        <v>35.92371774192558</v>
+        <v>35.92371774192553</v>
       </c>
       <c r="M37" t="n">
-        <v>37.87652348196298</v>
+        <v>37.87652348196293</v>
       </c>
       <c r="N37" t="n">
-        <v>36.97590441175453</v>
+        <v>36.97590441175448</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780838</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22399051232589</v>
+        <v>29.22399051232585</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R37" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S37" t="n">
-        <v>4.210943311194283</v>
+        <v>4.210943311194277</v>
       </c>
       <c r="T37" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921915</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5386715360482144</v>
+        <v>0.5386715360482135</v>
       </c>
       <c r="H38" t="n">
-        <v>5.516669868553777</v>
+        <v>5.516669868553768</v>
       </c>
       <c r="I38" t="n">
-        <v>20.7671343934988</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J38" t="n">
-        <v>45.71907328267217</v>
+        <v>45.71907328267211</v>
       </c>
       <c r="K38" t="n">
-        <v>68.52103940359309</v>
+        <v>68.52103940359299</v>
       </c>
       <c r="L38" t="n">
-        <v>85.00640842492865</v>
+        <v>85.00640842492854</v>
       </c>
       <c r="M38" t="n">
-        <v>94.58600835412608</v>
+        <v>94.58600835412594</v>
       </c>
       <c r="N38" t="n">
-        <v>96.11650885592309</v>
+        <v>96.11650885592294</v>
       </c>
       <c r="O38" t="n">
-        <v>90.76009376934364</v>
+        <v>90.76009376934351</v>
       </c>
       <c r="P38" t="n">
-        <v>77.46164022315334</v>
+        <v>77.46164022315322</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.17046583842664</v>
+        <v>58.17046583842656</v>
       </c>
       <c r="R38" t="n">
-        <v>33.83732587628867</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S38" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T38" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04309372288385714</v>
+        <v>0.04309372288385707</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H39" t="n">
-        <v>2.783547048977071</v>
+        <v>2.783547048977067</v>
       </c>
       <c r="I39" t="n">
-        <v>9.923180896671212</v>
+        <v>9.923180896671198</v>
       </c>
       <c r="J39" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015214</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54035045512662</v>
+        <v>46.54035045512656</v>
       </c>
       <c r="L39" t="n">
-        <v>62.57924462289278</v>
+        <v>62.57924462289269</v>
       </c>
       <c r="M39" t="n">
-        <v>73.0270268026364</v>
+        <v>73.0270268026363</v>
       </c>
       <c r="N39" t="n">
-        <v>74.95983490340205</v>
+        <v>74.95983490340194</v>
       </c>
       <c r="O39" t="n">
-        <v>68.57360434416856</v>
+        <v>68.57360434416846</v>
       </c>
       <c r="P39" t="n">
-        <v>55.03636304194538</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79035118684317</v>
+        <v>36.79035118684313</v>
       </c>
       <c r="R39" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041752</v>
       </c>
       <c r="S39" t="n">
-        <v>5.353461286293318</v>
+        <v>5.35346128629331</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I40" t="n">
-        <v>7.266458254267448</v>
+        <v>7.266458254267437</v>
       </c>
       <c r="J40" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07295540796189</v>
+        <v>28.07295540796185</v>
       </c>
       <c r="L40" t="n">
-        <v>35.92371774192558</v>
+        <v>35.92371774192553</v>
       </c>
       <c r="M40" t="n">
-        <v>37.87652348196298</v>
+        <v>37.87652348196293</v>
       </c>
       <c r="N40" t="n">
-        <v>36.97590441175453</v>
+        <v>36.97590441175448</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780838</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22399051232589</v>
+        <v>29.22399051232585</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R40" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S40" t="n">
-        <v>4.210943311194283</v>
+        <v>4.210943311194277</v>
       </c>
       <c r="T40" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921915</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5386715360482144</v>
+        <v>0.5386715360482135</v>
       </c>
       <c r="H41" t="n">
-        <v>5.516669868553777</v>
+        <v>5.516669868553768</v>
       </c>
       <c r="I41" t="n">
-        <v>20.7671343934988</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J41" t="n">
-        <v>45.71907328267217</v>
+        <v>45.71907328267211</v>
       </c>
       <c r="K41" t="n">
-        <v>68.52103940359309</v>
+        <v>68.52103940359299</v>
       </c>
       <c r="L41" t="n">
-        <v>85.00640842492865</v>
+        <v>85.00640842492854</v>
       </c>
       <c r="M41" t="n">
-        <v>94.58600835412608</v>
+        <v>94.58600835412594</v>
       </c>
       <c r="N41" t="n">
-        <v>96.11650885592309</v>
+        <v>96.11650885592294</v>
       </c>
       <c r="O41" t="n">
-        <v>90.76009376934364</v>
+        <v>90.76009376934351</v>
       </c>
       <c r="P41" t="n">
-        <v>77.46164022315334</v>
+        <v>77.46164022315322</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.17046583842664</v>
+        <v>58.17046583842656</v>
       </c>
       <c r="R41" t="n">
-        <v>33.83732587628867</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S41" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T41" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04309372288385714</v>
+        <v>0.04309372288385707</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H42" t="n">
-        <v>2.783547048977071</v>
+        <v>2.783547048977067</v>
       </c>
       <c r="I42" t="n">
-        <v>9.923180896671212</v>
+        <v>9.923180896671198</v>
       </c>
       <c r="J42" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015214</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54035045512662</v>
+        <v>46.54035045512656</v>
       </c>
       <c r="L42" t="n">
-        <v>62.57924462289278</v>
+        <v>62.57924462289269</v>
       </c>
       <c r="M42" t="n">
-        <v>73.0270268026364</v>
+        <v>73.0270268026363</v>
       </c>
       <c r="N42" t="n">
-        <v>74.95983490340205</v>
+        <v>74.95983490340194</v>
       </c>
       <c r="O42" t="n">
-        <v>68.57360434416856</v>
+        <v>68.57360434416846</v>
       </c>
       <c r="P42" t="n">
-        <v>55.03636304194538</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79035118684317</v>
+        <v>36.79035118684313</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041752</v>
       </c>
       <c r="S42" t="n">
-        <v>5.353461286293318</v>
+        <v>5.35346128629331</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I43" t="n">
-        <v>7.266458254267448</v>
+        <v>7.266458254267437</v>
       </c>
       <c r="J43" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07295540796189</v>
+        <v>28.07295540796185</v>
       </c>
       <c r="L43" t="n">
-        <v>35.92371774192558</v>
+        <v>35.92371774192553</v>
       </c>
       <c r="M43" t="n">
-        <v>37.87652348196298</v>
+        <v>37.87652348196293</v>
       </c>
       <c r="N43" t="n">
-        <v>36.97590441175453</v>
+        <v>36.97590441175448</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780838</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22399051232589</v>
+        <v>29.22399051232585</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R43" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S43" t="n">
-        <v>4.210943311194283</v>
+        <v>4.210943311194277</v>
       </c>
       <c r="T43" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921915</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5386715360482145</v>
+        <v>0.5386715360482135</v>
       </c>
       <c r="H44" t="n">
-        <v>5.516669868553778</v>
+        <v>5.516669868553768</v>
       </c>
       <c r="I44" t="n">
-        <v>20.76713439349881</v>
+        <v>20.76713439349877</v>
       </c>
       <c r="J44" t="n">
-        <v>45.71907328267218</v>
+        <v>45.71907328267211</v>
       </c>
       <c r="K44" t="n">
-        <v>68.52103940359311</v>
+        <v>68.52103940359299</v>
       </c>
       <c r="L44" t="n">
-        <v>85.00640842492868</v>
+        <v>85.00640842492854</v>
       </c>
       <c r="M44" t="n">
-        <v>94.58600835412611</v>
+        <v>94.58600835412594</v>
       </c>
       <c r="N44" t="n">
-        <v>96.1165088559231</v>
+        <v>96.11650885592294</v>
       </c>
       <c r="O44" t="n">
-        <v>90.76009376934367</v>
+        <v>90.76009376934351</v>
       </c>
       <c r="P44" t="n">
-        <v>77.46164022315335</v>
+        <v>77.46164022315322</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.17046583842666</v>
+        <v>58.17046583842656</v>
       </c>
       <c r="R44" t="n">
-        <v>33.83732587628868</v>
+        <v>33.83732587628862</v>
       </c>
       <c r="S44" t="n">
-        <v>12.2749776276987</v>
+        <v>12.27497762769868</v>
       </c>
       <c r="T44" t="n">
-        <v>2.35803464905106</v>
+        <v>2.358034649051056</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04309372288385715</v>
+        <v>0.04309372288385707</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882146808205142</v>
+        <v>0.2882146808205137</v>
       </c>
       <c r="H45" t="n">
-        <v>2.783547048977072</v>
+        <v>2.783547048977067</v>
       </c>
       <c r="I45" t="n">
-        <v>9.923180896671214</v>
+        <v>9.923180896671198</v>
       </c>
       <c r="J45" t="n">
-        <v>27.22996684015218</v>
+        <v>27.22996684015214</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54035045512664</v>
+        <v>46.54035045512656</v>
       </c>
       <c r="L45" t="n">
-        <v>62.57924462289279</v>
+        <v>62.57924462289269</v>
       </c>
       <c r="M45" t="n">
-        <v>73.02702680263641</v>
+        <v>73.0270268026363</v>
       </c>
       <c r="N45" t="n">
-        <v>74.95983490340207</v>
+        <v>74.95983490340194</v>
       </c>
       <c r="O45" t="n">
-        <v>68.57360434416857</v>
+        <v>68.57360434416846</v>
       </c>
       <c r="P45" t="n">
-        <v>55.03636304194539</v>
+        <v>55.03636304194529</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79035118684319</v>
+        <v>36.79035118684313</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89459220041755</v>
+        <v>17.89459220041752</v>
       </c>
       <c r="S45" t="n">
-        <v>5.35346128629332</v>
+        <v>5.35346128629331</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161707419623037</v>
+        <v>1.161707419623035</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896149215924436</v>
+        <v>0.01896149215924433</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416295066412996</v>
+        <v>0.2416295066412992</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148305977229011</v>
+        <v>2.148305977229007</v>
       </c>
       <c r="I46" t="n">
-        <v>7.266458254267449</v>
+        <v>7.266458254267437</v>
       </c>
       <c r="J46" t="n">
-        <v>17.08320611953988</v>
+        <v>17.08320611953985</v>
       </c>
       <c r="K46" t="n">
-        <v>28.0729554079619</v>
+        <v>28.07295540796185</v>
       </c>
       <c r="L46" t="n">
-        <v>35.92371774192559</v>
+        <v>35.92371774192553</v>
       </c>
       <c r="M46" t="n">
-        <v>37.87652348196299</v>
+        <v>37.87652348196293</v>
       </c>
       <c r="N46" t="n">
-        <v>36.97590441175454</v>
+        <v>36.97590441175448</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15323244780843</v>
+        <v>34.15323244780838</v>
       </c>
       <c r="P46" t="n">
-        <v>29.2239905123259</v>
+        <v>29.22399051232585</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23317623339101</v>
+        <v>20.23317623339097</v>
       </c>
       <c r="R46" t="n">
-        <v>10.86454127134425</v>
+        <v>10.86454127134423</v>
       </c>
       <c r="S46" t="n">
-        <v>4.210943311194284</v>
+        <v>4.210943311194277</v>
       </c>
       <c r="T46" t="n">
-        <v>1.032416982921916</v>
+        <v>1.032416982921915</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01317979127134363</v>
+        <v>0.01317979127134361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>118.4448755784354</v>
       </c>
       <c r="K11" t="n">
-        <v>239.1052853600953</v>
+        <v>311.0870717720604</v>
       </c>
       <c r="L11" t="n">
-        <v>436.4057751773996</v>
+        <v>436.4057751773994</v>
       </c>
       <c r="M11" t="n">
-        <v>491.7972873976493</v>
+        <v>491.7972873976491</v>
       </c>
       <c r="N11" t="n">
-        <v>478.2693964192723</v>
+        <v>478.2693964192721</v>
       </c>
       <c r="O11" t="n">
-        <v>398.8455326307921</v>
+        <v>398.8455326307919</v>
       </c>
       <c r="P11" t="n">
-        <v>307.9231517949243</v>
+        <v>117.4964898045245</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.5565806733125</v>
+        <v>153.5565806733124</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.09274111601697</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>278.3489894048121</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0962599462419</v>
+        <v>432.0962599462418</v>
       </c>
       <c r="M12" t="n">
-        <v>373.2496670677924</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N12" t="n">
-        <v>591.3897804823132</v>
+        <v>591.3897804823131</v>
       </c>
       <c r="O12" t="n">
-        <v>464.7351707928058</v>
+        <v>84.7688824558071</v>
       </c>
       <c r="P12" t="n">
-        <v>360.1837562497204</v>
+        <v>360.1837562497203</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.1556337985545</v>
+        <v>196.1556337985544</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.20488687940541</v>
+        <v>46.20488687940555</v>
       </c>
       <c r="K13" t="n">
-        <v>150.5949263522847</v>
+        <v>150.5949263522849</v>
       </c>
       <c r="L13" t="n">
-        <v>226.1253772272748</v>
+        <v>226.1253772272749</v>
       </c>
       <c r="M13" t="n">
-        <v>245.6402301666477</v>
+        <v>245.6402301666479</v>
       </c>
       <c r="N13" t="n">
-        <v>245.1727783913874</v>
+        <v>245.1727783913875</v>
       </c>
       <c r="O13" t="n">
-        <v>222.1898081911679</v>
+        <v>222.189808191168</v>
       </c>
       <c r="P13" t="n">
-        <v>181.4068664904814</v>
+        <v>181.4068664904816</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.65955526037769</v>
+        <v>70.65955526037783</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>81.57479426134711</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>311.0870717720605</v>
+        <v>239.1052853600962</v>
       </c>
       <c r="L14" t="n">
-        <v>436.4057751773996</v>
+        <v>436.4057751773994</v>
       </c>
       <c r="M14" t="n">
-        <v>491.7972873976493</v>
+        <v>491.7972873976491</v>
       </c>
       <c r="N14" t="n">
-        <v>478.2693964192723</v>
+        <v>478.2693964192721</v>
       </c>
       <c r="O14" t="n">
-        <v>398.8455326307921</v>
+        <v>398.8455326307919</v>
       </c>
       <c r="P14" t="n">
-        <v>307.9231517949243</v>
+        <v>307.9231517949241</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.5565806733124</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>278.3489894048121</v>
       </c>
       <c r="L15" t="n">
-        <v>432.0962599462419</v>
+        <v>432.0962599462418</v>
       </c>
       <c r="M15" t="n">
-        <v>562.9597071159965</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N15" t="n">
-        <v>591.3897804823132</v>
+        <v>407.5791259438689</v>
       </c>
       <c r="O15" t="n">
-        <v>464.7351707928058</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P15" t="n">
-        <v>360.1837562497204</v>
+        <v>360.1837562497203</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.53833486636771</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>48.47845913046896</v>
+        <v>48.47845913046893</v>
       </c>
       <c r="K16" t="n">
-        <v>152.8684986033483</v>
+        <v>152.8684986033482</v>
       </c>
       <c r="L16" t="n">
         <v>228.3989494783383</v>
       </c>
       <c r="M16" t="n">
-        <v>247.9138024177113</v>
+        <v>247.9138024177112</v>
       </c>
       <c r="N16" t="n">
-        <v>247.446350642451</v>
+        <v>247.4463506424509</v>
       </c>
       <c r="O16" t="n">
         <v>224.4633804422314</v>
@@ -35823,7 +35823,7 @@
         <v>183.6804387415449</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.93312751144123</v>
+        <v>72.9331275114412</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>118.4448755784355</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>120.6604097816599</v>
+        <v>311.0870717720604</v>
       </c>
       <c r="L17" t="n">
-        <v>436.4057751773996</v>
+        <v>436.4057751773994</v>
       </c>
       <c r="M17" t="n">
-        <v>491.7972873976493</v>
+        <v>419.8155009856848</v>
       </c>
       <c r="N17" t="n">
-        <v>478.2693964192723</v>
+        <v>478.2693964192721</v>
       </c>
       <c r="O17" t="n">
-        <v>398.8455326307921</v>
+        <v>398.8455326307919</v>
       </c>
       <c r="P17" t="n">
-        <v>307.9231517949243</v>
+        <v>307.9231517949241</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.5565806733125</v>
+        <v>153.5565806733124</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09274111601697</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>278.3489894048121</v>
       </c>
       <c r="L18" t="n">
-        <v>432.0962599462419</v>
+        <v>432.0962599462418</v>
       </c>
       <c r="M18" t="n">
-        <v>562.9597071159965</v>
+        <v>182.9934187789981</v>
       </c>
       <c r="N18" t="n">
-        <v>591.3897804823132</v>
+        <v>591.3897804823131</v>
       </c>
       <c r="O18" t="n">
-        <v>464.7351707928058</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P18" t="n">
-        <v>88.28036059525898</v>
+        <v>360.1837562497203</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>196.1556337985544</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.01657939245019</v>
+        <v>62.01657939245014</v>
       </c>
       <c r="L19" t="n">
         <v>137.5470302674402</v>
       </c>
       <c r="M19" t="n">
-        <v>157.0618832068132</v>
+        <v>157.0618832068131</v>
       </c>
       <c r="N19" t="n">
-        <v>156.5944314315529</v>
+        <v>156.5944314315528</v>
       </c>
       <c r="O19" t="n">
-        <v>133.6114612313334</v>
+        <v>133.6114612313333</v>
       </c>
       <c r="P19" t="n">
-        <v>92.8285195306469</v>
+        <v>92.82851953064684</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>118.4448755784355</v>
+        <v>118.4448755784354</v>
       </c>
       <c r="K20" t="n">
-        <v>311.0870717720605</v>
+        <v>311.0870717720604</v>
       </c>
       <c r="L20" t="n">
-        <v>436.4057751773996</v>
+        <v>436.4057751773994</v>
       </c>
       <c r="M20" t="n">
-        <v>491.7972873976493</v>
+        <v>301.3706254072494</v>
       </c>
       <c r="N20" t="n">
-        <v>287.8427344288717</v>
+        <v>478.2693964192721</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8455326307921</v>
+        <v>398.8455326307919</v>
       </c>
       <c r="P20" t="n">
-        <v>307.9231517949243</v>
+        <v>307.9231517949241</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.5565806733125</v>
+        <v>153.5565806733124</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09274111601697</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>278.3489894048121</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0962599462419</v>
+        <v>248.2856054077977</v>
       </c>
       <c r="M21" t="n">
-        <v>562.9597071159965</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N21" t="n">
-        <v>123.3307510292969</v>
+        <v>591.3897804823131</v>
       </c>
       <c r="O21" t="n">
-        <v>464.7351707928058</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P21" t="n">
-        <v>360.1837562497204</v>
+        <v>360.1837562497203</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1556337985545</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.01657939245019</v>
+        <v>62.01657939245014</v>
       </c>
       <c r="L22" t="n">
         <v>137.5470302674402</v>
       </c>
       <c r="M22" t="n">
-        <v>157.0618832068132</v>
+        <v>157.0618832068131</v>
       </c>
       <c r="N22" t="n">
-        <v>156.5944314315529</v>
+        <v>156.5944314315528</v>
       </c>
       <c r="O22" t="n">
-        <v>133.6114612313334</v>
+        <v>133.6114612313333</v>
       </c>
       <c r="P22" t="n">
-        <v>92.8285195306469</v>
+        <v>92.82851953064684</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>81.57479426134711</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>311.0870717720605</v>
+        <v>311.0870717720604</v>
       </c>
       <c r="L23" t="n">
-        <v>436.4057751773996</v>
+        <v>436.4057751773994</v>
       </c>
       <c r="M23" t="n">
-        <v>491.7972873976493</v>
+        <v>491.7972873976491</v>
       </c>
       <c r="N23" t="n">
-        <v>478.2693964192723</v>
+        <v>478.2693964192721</v>
       </c>
       <c r="O23" t="n">
-        <v>398.8455326307921</v>
+        <v>398.8455326307919</v>
       </c>
       <c r="P23" t="n">
-        <v>307.9231517949243</v>
+        <v>235.9413653829598</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>153.5565806733124</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09274111601697</v>
+        <v>88.09274111601692</v>
       </c>
       <c r="K24" t="n">
         <v>278.3489894048121</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>432.0962599462418</v>
       </c>
       <c r="M24" t="n">
-        <v>562.9597071159965</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N24" t="n">
-        <v>591.3897804823132</v>
+        <v>123.3307510292969</v>
       </c>
       <c r="O24" t="n">
-        <v>464.7351707928058</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P24" t="n">
-        <v>360.1837562497204</v>
+        <v>360.1837562497203</v>
       </c>
       <c r="Q24" t="n">
-        <v>160.1928642917792</v>
+        <v>196.1556337985544</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.01657939245019</v>
+        <v>62.01657939245014</v>
       </c>
       <c r="L25" t="n">
         <v>137.5470302674402</v>
       </c>
       <c r="M25" t="n">
-        <v>157.0618832068132</v>
+        <v>157.0618832068131</v>
       </c>
       <c r="N25" t="n">
-        <v>156.5944314315529</v>
+        <v>156.5944314315528</v>
       </c>
       <c r="O25" t="n">
-        <v>133.6114612313334</v>
+        <v>133.6114612313333</v>
       </c>
       <c r="P25" t="n">
-        <v>92.8285195306469</v>
+        <v>92.82851953064684</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>220.9461594385853</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5883556322104</v>
+        <v>413.5883556322103</v>
       </c>
       <c r="L26" t="n">
-        <v>436.6397808239767</v>
+        <v>538.9070590375494</v>
       </c>
       <c r="M26" t="n">
-        <v>594.2985712577992</v>
+        <v>594.298571257799</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7706802794222</v>
+        <v>580.7706802794221</v>
       </c>
       <c r="O26" t="n">
-        <v>501.346816490942</v>
+        <v>501.3468164909419</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4244356550741</v>
+        <v>308.1571574415014</v>
       </c>
       <c r="Q26" t="n">
         <v>256.0578645334624</v>
       </c>
       <c r="R26" t="n">
-        <v>46.60670609733337</v>
+        <v>46.60670609733333</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>88.09274111601694</v>
       </c>
       <c r="K27" t="n">
-        <v>278.3489894048122</v>
+        <v>278.3489894048121</v>
       </c>
       <c r="L27" t="n">
-        <v>432.096259946242</v>
+        <v>432.0962599462418</v>
       </c>
       <c r="M27" t="n">
-        <v>379.1490525775507</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N27" t="n">
-        <v>591.3897804823133</v>
+        <v>123.3307510292967</v>
       </c>
       <c r="O27" t="n">
-        <v>464.7351707928058</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P27" t="n">
-        <v>360.1837562497204</v>
+        <v>360.1837562497203</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>196.1556337985545</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12782377972076</v>
+        <v>60.12782377972074</v>
       </c>
       <c r="K28" t="n">
-        <v>164.5178632526001</v>
+        <v>164.5178632526</v>
       </c>
       <c r="L28" t="n">
         <v>240.0483141275901</v>
       </c>
       <c r="M28" t="n">
-        <v>259.5631670669631</v>
+        <v>259.563167066963</v>
       </c>
       <c r="N28" t="n">
         <v>259.0957152917027</v>
@@ -36768,10 +36768,10 @@
         <v>236.1127450914832</v>
       </c>
       <c r="P28" t="n">
-        <v>195.3298033907968</v>
+        <v>195.3298033907967</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58249216069302</v>
+        <v>84.58249216069301</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.9461594385853</v>
+        <v>118.6788812250124</v>
       </c>
       <c r="K29" t="n">
-        <v>413.5883556322104</v>
+        <v>413.5883556322103</v>
       </c>
       <c r="L29" t="n">
         <v>538.9070590375494</v>
       </c>
       <c r="M29" t="n">
-        <v>492.0312930442261</v>
+        <v>594.298571257799</v>
       </c>
       <c r="N29" t="n">
         <v>580.7706802794221</v>
       </c>
       <c r="O29" t="n">
-        <v>501.3468164909419</v>
+        <v>501.3468164909418</v>
       </c>
       <c r="P29" t="n">
-        <v>410.4244356550741</v>
+        <v>410.424435655074</v>
       </c>
       <c r="Q29" t="n">
-        <v>256.0578645334624</v>
+        <v>256.0578645334623</v>
       </c>
       <c r="R29" t="n">
-        <v>46.60670609733334</v>
+        <v>46.60670609733332</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09274111601697</v>
+        <v>88.09274111601692</v>
       </c>
       <c r="K30" t="n">
         <v>278.3489894048121</v>
       </c>
       <c r="L30" t="n">
-        <v>432.0962599462419</v>
+        <v>432.0962599462418</v>
       </c>
       <c r="M30" t="n">
-        <v>562.9597071159965</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N30" t="n">
-        <v>123.330751029296</v>
+        <v>123.3307510292971</v>
       </c>
       <c r="O30" t="n">
-        <v>464.7351707928058</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P30" t="n">
-        <v>360.1837562497204</v>
+        <v>360.1837562497203</v>
       </c>
       <c r="Q30" t="n">
-        <v>196.1556337985545</v>
+        <v>196.1556337985544</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>60.12782377972074</v>
       </c>
       <c r="K31" t="n">
-        <v>164.5178632526001</v>
+        <v>164.5178632526</v>
       </c>
       <c r="L31" t="n">
         <v>240.0483141275901</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>118.6788812250115</v>
+        <v>220.9461594385853</v>
       </c>
       <c r="K32" t="n">
-        <v>413.5883556322104</v>
+        <v>311.3210774186375</v>
       </c>
       <c r="L32" t="n">
-        <v>538.9070590375495</v>
+        <v>538.9070590375494</v>
       </c>
       <c r="M32" t="n">
-        <v>594.2985712577992</v>
+        <v>594.298571257799</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7706802794223</v>
+        <v>580.7706802794221</v>
       </c>
       <c r="O32" t="n">
-        <v>501.346816490942</v>
+        <v>501.3468164909418</v>
       </c>
       <c r="P32" t="n">
-        <v>410.4244356550742</v>
+        <v>410.4244356550741</v>
       </c>
       <c r="Q32" t="n">
         <v>256.0578645334624</v>
       </c>
       <c r="R32" t="n">
-        <v>46.60670609733342</v>
+        <v>46.60670609733337</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>88.09274111601692</v>
       </c>
       <c r="K33" t="n">
-        <v>94.53833486636668</v>
+        <v>278.3489894048121</v>
       </c>
       <c r="L33" t="n">
-        <v>432.0962599462419</v>
+        <v>432.0962599462418</v>
       </c>
       <c r="M33" t="n">
-        <v>562.9597071159965</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N33" t="n">
-        <v>591.3897804823132</v>
+        <v>123.3307510292971</v>
       </c>
       <c r="O33" t="n">
-        <v>464.7351707928058</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P33" t="n">
-        <v>360.1837562497204</v>
+        <v>360.1837562497203</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>196.1556337985544</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.1278237797196</v>
+        <v>60.12782377971971</v>
       </c>
       <c r="K34" t="n">
         <v>164.5178632526001</v>
@@ -37233,19 +37233,19 @@
         <v>240.0483141275901</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5631670669632</v>
+        <v>259.5631670669631</v>
       </c>
       <c r="N34" t="n">
-        <v>259.0957152917028</v>
+        <v>259.0957152917027</v>
       </c>
       <c r="O34" t="n">
-        <v>236.1127450914833</v>
+        <v>236.1127450914832</v>
       </c>
       <c r="P34" t="n">
         <v>195.3298033907968</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58249216069308</v>
+        <v>84.58249216069305</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.4448755784357</v>
+        <v>118.4448755784354</v>
       </c>
       <c r="K35" t="n">
-        <v>311.0870717720605</v>
+        <v>311.0870717720604</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4057751773996</v>
+        <v>436.4057751773995</v>
       </c>
       <c r="M35" t="n">
-        <v>491.7972873976493</v>
+        <v>491.7972873976491</v>
       </c>
       <c r="N35" t="n">
-        <v>478.2693964192723</v>
+        <v>478.2693964192722</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8455326307921</v>
+        <v>398.8455326307919</v>
       </c>
       <c r="P35" t="n">
-        <v>307.9231517949243</v>
+        <v>307.9231517949241</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.5565806733125</v>
+        <v>153.5565806733124</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09274111601697</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>278.3489894048121</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>432.0962599462419</v>
+        <v>432.0962599462418</v>
       </c>
       <c r="M36" t="n">
-        <v>562.9597071159965</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N36" t="n">
-        <v>123.3307510292955</v>
+        <v>591.3897804823132</v>
       </c>
       <c r="O36" t="n">
-        <v>464.7351707928058</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P36" t="n">
-        <v>360.1837562497204</v>
+        <v>360.1837562497203</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.1556337985545</v>
+        <v>94.53833486636678</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.01657939245019</v>
+        <v>62.01657939245015</v>
       </c>
       <c r="L37" t="n">
         <v>137.5470302674402</v>
       </c>
       <c r="M37" t="n">
-        <v>157.0618832068132</v>
+        <v>157.0618832068131</v>
       </c>
       <c r="N37" t="n">
-        <v>156.5944314315529</v>
+        <v>156.5944314315528</v>
       </c>
       <c r="O37" t="n">
-        <v>133.6114612313334</v>
+        <v>133.6114612313333</v>
       </c>
       <c r="P37" t="n">
-        <v>92.8285195306469</v>
+        <v>92.82851953064686</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.4448755784355</v>
+        <v>118.4448755784354</v>
       </c>
       <c r="K38" t="n">
-        <v>311.0870717720605</v>
+        <v>311.0870717720604</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4057751773996</v>
+        <v>436.4057751773995</v>
       </c>
       <c r="M38" t="n">
-        <v>491.7972873976493</v>
+        <v>491.7972873976491</v>
       </c>
       <c r="N38" t="n">
-        <v>478.2693964192727</v>
+        <v>478.2693964192722</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8455326307921</v>
+        <v>398.8455326307919</v>
       </c>
       <c r="P38" t="n">
-        <v>307.9231517949243</v>
+        <v>307.9231517949241</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.5565806733125</v>
+        <v>153.5565806733119</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09274111601697</v>
+        <v>88.09274111601692</v>
       </c>
       <c r="K39" t="n">
         <v>278.3489894048121</v>
       </c>
       <c r="L39" t="n">
-        <v>432.0962599462419</v>
+        <v>324.2209867429457</v>
       </c>
       <c r="M39" t="n">
-        <v>562.9597071159965</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N39" t="n">
-        <v>588.0659218221014</v>
+        <v>591.3897804823132</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P39" t="n">
-        <v>360.1837562497204</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.1556337985545</v>
+        <v>196.1556337985544</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.01657939245019</v>
+        <v>62.01657939245015</v>
       </c>
       <c r="L40" t="n">
         <v>137.5470302674402</v>
       </c>
       <c r="M40" t="n">
-        <v>157.0618832068132</v>
+        <v>157.0618832068131</v>
       </c>
       <c r="N40" t="n">
-        <v>156.5944314315529</v>
+        <v>156.5944314315528</v>
       </c>
       <c r="O40" t="n">
-        <v>133.6114612313334</v>
+        <v>133.6114612313333</v>
       </c>
       <c r="P40" t="n">
-        <v>92.8285195306469</v>
+        <v>92.82851953064686</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.4448755784355</v>
+        <v>118.4448755784351</v>
       </c>
       <c r="K41" t="n">
-        <v>311.0870717720605</v>
+        <v>311.0870717720604</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4057751773996</v>
+        <v>436.4057751773995</v>
       </c>
       <c r="M41" t="n">
-        <v>491.7972873976493</v>
+        <v>491.7972873976491</v>
       </c>
       <c r="N41" t="n">
-        <v>478.2693964192723</v>
+        <v>478.2693964192722</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8455326307921</v>
+        <v>398.8455326307919</v>
       </c>
       <c r="P41" t="n">
-        <v>307.9231517949243</v>
+        <v>307.9231517949241</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.5565806733125</v>
+        <v>153.5565806733124</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09274111601697</v>
+        <v>88.09274111601692</v>
       </c>
       <c r="K42" t="n">
         <v>278.3489894048121</v>
       </c>
       <c r="L42" t="n">
-        <v>432.0962599462419</v>
+        <v>432.0962599462418</v>
       </c>
       <c r="M42" t="n">
-        <v>562.9597071159965</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N42" t="n">
         <v>591.3897804823132</v>
       </c>
       <c r="O42" t="n">
-        <v>356.8598975895085</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>88.28036059525807</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.1556337985545</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.01657939245019</v>
+        <v>62.01657939245015</v>
       </c>
       <c r="L43" t="n">
         <v>137.5470302674402</v>
       </c>
       <c r="M43" t="n">
-        <v>157.0618832068132</v>
+        <v>157.0618832068131</v>
       </c>
       <c r="N43" t="n">
-        <v>156.5944314315529</v>
+        <v>156.5944314315528</v>
       </c>
       <c r="O43" t="n">
-        <v>133.6114612313334</v>
+        <v>133.6114612313333</v>
       </c>
       <c r="P43" t="n">
-        <v>92.8285195306469</v>
+        <v>92.82851953064686</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118.4448755784355</v>
+        <v>118.4448755784354</v>
       </c>
       <c r="K44" t="n">
-        <v>311.0870717720605</v>
+        <v>311.0870717720604</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4057751773996</v>
+        <v>436.4057751773995</v>
       </c>
       <c r="M44" t="n">
-        <v>491.7972873976493</v>
+        <v>491.7972873976491</v>
       </c>
       <c r="N44" t="n">
-        <v>478.2693964192723</v>
+        <v>478.2693964192722</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8455326307921</v>
+        <v>398.8455326307919</v>
       </c>
       <c r="P44" t="n">
-        <v>307.9231517949243</v>
+        <v>307.9231517949241</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.5565806733128</v>
+        <v>153.5565806733124</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09274111601698</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>278.3489894048122</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>432.096259946242</v>
+        <v>432.0962599462418</v>
       </c>
       <c r="M45" t="n">
-        <v>562.9597071159965</v>
+        <v>562.9597071159964</v>
       </c>
       <c r="N45" t="n">
-        <v>123.3307510292955</v>
+        <v>591.3897804823132</v>
       </c>
       <c r="O45" t="n">
-        <v>464.7351707928058</v>
+        <v>464.7351707928057</v>
       </c>
       <c r="P45" t="n">
-        <v>360.1837562497204</v>
+        <v>360.1837562497203</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.1556337985545</v>
+        <v>94.53833486636678</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>7.608509893876763</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.0165793924502</v>
+        <v>62.01657939245015</v>
       </c>
       <c r="L46" t="n">
         <v>137.5470302674402</v>
       </c>
       <c r="M46" t="n">
-        <v>157.0618832068132</v>
+        <v>157.0618832068131</v>
       </c>
       <c r="N46" t="n">
-        <v>156.5944314315529</v>
+        <v>156.5944314315528</v>
       </c>
       <c r="O46" t="n">
-        <v>133.6114612313334</v>
+        <v>133.6114612313333</v>
       </c>
       <c r="P46" t="n">
-        <v>92.8285195306469</v>
+        <v>92.82851953064686</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.608509893876347</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
